--- a/プロジェクト型演習_成果物(登録).xlsx
+++ b/プロジェクト型演習_成果物(登録).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjus\OneDrive\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB99E119-9E5A-48A1-BDA1-8241319593E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49354BBB-19C0-4A4C-9F2D-05D8ED5723E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="11440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1052,29 +1052,83 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1094,85 +1148,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1193,19 +1205,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1978,15 +1978,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:colOff>546101</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>88901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1130300</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>1075766</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>36919</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2001,8 +2001,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2781300" y="1162050"/>
-          <a:ext cx="6426200" cy="5099050"/>
+          <a:off x="2775985" y="1166924"/>
+          <a:ext cx="7529432" cy="7907669"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2122,9 +2122,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>1026338</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>88604</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2139,8 +2139,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2940050" y="1530350"/>
-          <a:ext cx="2857500" cy="4521200"/>
+          <a:off x="2934734" y="1542607"/>
+          <a:ext cx="3821371" cy="7421230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2183,15 +2183,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:colOff>1100174</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>1004185</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2206,8 +2206,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5880100" y="1530350"/>
-          <a:ext cx="4337050" cy="4521200"/>
+          <a:off x="6829941" y="1542607"/>
+          <a:ext cx="3403895" cy="4003896"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2313,15 +2313,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
+      <xdr:colOff>1102981</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>51835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>760081</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>147085</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2336,8 +2336,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5886450" y="1435100"/>
-          <a:ext cx="825500" cy="95250"/>
+          <a:off x="6832748" y="1454742"/>
+          <a:ext cx="823728" cy="95250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2376,15 +2376,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
+      <xdr:colOff>790058</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>930349</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>147674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2399,8 +2399,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3168650" y="1854200"/>
-          <a:ext cx="2393950" cy="3841750"/>
+          <a:off x="3019942" y="1873841"/>
+          <a:ext cx="3640174" cy="6986624"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2447,78 +2447,268 @@
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>- taskName:String</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- categoryId:int</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- limitDate:date</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- userId:String</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>- statusCode:char</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>-</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> memo:String</a:t>
+            <a:t>  taskId: int</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-  taskName: String</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-  categoryId:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> int</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- categoryName : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- limitDate : date</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- userId : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- userName : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- statusCode : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- statusName : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- memo : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- createDatetime : Timestamp</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- updateDatetime : Timestamp</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -2529,155 +2719,539 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>+ TaskCategoryUserStatusBean()</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>+ getTaskName():String</a:t>
+            <a:t>+ getTaskId() : String</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>+ setTaskName(taskName:String):void</a:t>
+            <a:t>+ setTaskId(taskid : int): void</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>+ getCategoryId():int</a:t>
+            <a:t>+ getTaskName(): String</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>+ setCategoryId(categoryId:int):void</a:t>
+            <a:t>+ setTaskName(taskname : String): void </a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>+ getLimitDate():date</a:t>
+            <a:t>+ getCategoryId() : String</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>+ setLimitDate(limitDate:date):void</a:t>
+            <a:t>+ setCategoryId(categoryid : int): void</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+ getCategoryName() : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+ setCategoryName(categoryName : String)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>void</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+ getLimitDate():Date</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+ setLimitDate(limitdate:date):void</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>+ getUserId():String</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>+ setUserId(userId:String):void</a:t>
+            <a:t>+ </a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>+ getStatusCode():char</a:t>
+            <a:t>setUserId(useid:String) : void</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>+ serStatusCode(statusCode:char):void</a:t>
+            <a:t>+ getUserName():String</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+ setUserName(userName:String) : void</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+ getStatusCode():String</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+ setStatusCode(statuscode:String):void</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+ getStatusName():String</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+ setStatusName(statusName:String) :void</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>+ getMemo():String</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>+ setMemo(memo:String):void</a:t>
+            <a:t>+ setMemo(memo):void</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+ getCreateDateTime():Timestamp</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+ setCreateDateTime(createDatetime:Timestamp) : void</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+ getUpdateDateTime() : Timestamp</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+ setUpdateDateTime(updateDateTime : TimeStamp) : void</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2685,16 +3259,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>24662</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>154024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
+      <xdr:colOff>924590</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>67782</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2709,8 +3283,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6051550" y="1873250"/>
-          <a:ext cx="4000500" cy="1346200"/>
+          <a:off x="6921057" y="1881815"/>
+          <a:ext cx="3233184" cy="1375734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2843,16 +3417,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>316024</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>1182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
+      <xdr:colOff>646224</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>26582</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2867,8 +3441,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6007100" y="4603750"/>
-          <a:ext cx="4095750" cy="660400"/>
+          <a:off x="7212419" y="4652926"/>
+          <a:ext cx="2663456" cy="675168"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2919,15 +3493,54 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>+ insert(dao:TaskCategoryUserStatusDAO):int</a:t>
+            <a:t>+ insert</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(tcus:TaskCategoryUserStatusBean)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:int</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -2943,11 +3556,11 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>939800</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>103373</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>620233</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2963,9 +3576,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3175000" y="2139950"/>
-          <a:ext cx="2387600" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="3169684" y="2156047"/>
+          <a:ext cx="3180316" cy="10927"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2996,15 +3609,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>928134</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>627617</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>77455</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3019,8 +3632,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3175000" y="3340100"/>
-          <a:ext cx="2368550" cy="3175"/>
+          <a:off x="3158018" y="4393314"/>
+          <a:ext cx="3199366" cy="11001"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3050,16 +3663,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>23628</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>130249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
+      <xdr:colOff>917206</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>130249</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3074,63 +3687,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6051550" y="2171700"/>
-          <a:ext cx="4000500" cy="6350"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>793750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="直線コネクタ 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3A5654F-93C6-7608-BB78-6F943C2E5B82}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6057900" y="2851150"/>
-          <a:ext cx="3981450" cy="0"/>
+          <a:off x="6920023" y="2182923"/>
+          <a:ext cx="3226834" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3161,44 +3719,39 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>16244</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>16982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1146175</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>897122</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>16982</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
+        <xdr:cNvPr id="64" name="直線コネクタ 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46914534-974C-5319-39E3-4B70F47989A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3A5654F-93C6-7608-BB78-6F943C2E5B82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="28" idx="0"/>
-          <a:endCxn id="27" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8051800" y="3219450"/>
-          <a:ext cx="3175" cy="1384300"/>
+        <a:xfrm>
+          <a:off x="6912639" y="2881866"/>
+          <a:ext cx="3214134" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="19050">
+        <a:ln>
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3220,34 +3773,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>977900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>474626</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>67782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>481124</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1182</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93924FBE-08E5-D3DE-C5A6-1AEDF34FF05F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46914534-974C-5319-39E3-4B70F47989A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="28" idx="1"/>
+          <a:stCxn id="28" idx="0"/>
+          <a:endCxn id="27" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5549900" y="4933950"/>
-          <a:ext cx="457200" cy="0"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8537649" y="3257549"/>
+          <a:ext cx="6498" cy="1395377"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3280,15 +3834,74 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>915582</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>13882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>316024</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>14767</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93924FBE-08E5-D3DE-C5A6-1AEDF34FF05F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6645349" y="4990510"/>
+          <a:ext cx="567070" cy="885"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>316024</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>13882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
+      <xdr:colOff>646224</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>13882</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3306,8 +3919,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6007100" y="4933950"/>
-          <a:ext cx="4095750" cy="0"/>
+          <a:off x="7212419" y="4990510"/>
+          <a:ext cx="2663456" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3340,13 +3953,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>42604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:colOff>790058</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>65641</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3364,11 +3977,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2597150" y="2705100"/>
-          <a:ext cx="571500" cy="1069975"/>
+          <a:off x="2591834" y="2745046"/>
+          <a:ext cx="428108" cy="2622107"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 65522"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
           <a:solidFill>
@@ -3400,13 +4015,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
+      <xdr:rowOff>157422</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:colOff>790058</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>65641</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3424,68 +4039,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2590800" y="2181225"/>
-          <a:ext cx="577850" cy="1593850"/>
+          <a:off x="2585484" y="2210096"/>
+          <a:ext cx="434458" cy="3157057"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="コネクタ: カギ線 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F2D7F8B-97A8-1706-072C-422C772257E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2520950" y="4203700"/>
-          <a:ext cx="647700" cy="520700"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 65296"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
           <a:solidFill>
@@ -3515,15 +4075,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>450849</xdr:colOff>
+      <xdr:colOff>451145</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1146174</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>481123</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>26582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3541,12 +4101,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4700587" y="1909762"/>
-          <a:ext cx="171450" cy="6537325"/>
+          <a:off x="4960162" y="1744109"/>
+          <a:ext cx="138224" cy="7029745"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 803703"/>
+            <a:gd name="adj1" fmla="val 2909600"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
@@ -5013,7 +5573,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I4"/>
+      <selection activeCell="D11" sqref="D11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -5024,19 +5584,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="30"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
@@ -5048,70 +5608,70 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="51"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="25"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="80">
+      <c r="E2" s="63"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="66">
         <v>45631</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="40"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="51"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="25"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="41"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="42"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="63" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="64"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="35" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="22"/>
@@ -5119,15 +5679,15 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
-      <c r="J6" s="60"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="50" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="35" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="22"/>
@@ -5135,15 +5695,15 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
-      <c r="J7" s="60"/>
+      <c r="J7" s="36"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="50" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="35" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="22"/>
@@ -5151,17 +5711,17 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
-      <c r="J8" s="60"/>
+      <c r="J8" s="36"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="54" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="23"/>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="37" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="22"/>
@@ -5169,29 +5729,29 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
-      <c r="J9" s="60"/>
+      <c r="J9" s="36"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="54" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="23"/>
-      <c r="D10" s="59"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="60"/>
+      <c r="J10" s="36"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="54" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="23"/>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="37" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="22"/>
@@ -5199,15 +5759,15 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
-      <c r="J11" s="60"/>
+      <c r="J11" s="36"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="50" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="35" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="22"/>
@@ -5215,21 +5775,21 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
-      <c r="J12" s="60"/>
+      <c r="J12" s="36"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="62"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -6220,6 +6780,25 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
@@ -6228,25 +6807,6 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -6256,10 +6816,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K1007"/>
+  <dimension ref="A1:K1023"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H4"/>
+    <sheetView topLeftCell="A31" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -6270,20 +6830,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="30"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="49"/>
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
@@ -6295,49 +6855,49 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="51"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="25"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="80">
+      <c r="E2" s="63"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="66">
         <v>45631</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="40"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="51"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="25"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="41"/>
-    </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="42"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -6795,60 +7355,252 @@
       <c r="K39" s="10"/>
     </row>
     <row r="40" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="13"/>
-    </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1"/>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1"/>
-    <row r="43" spans="1:11" ht="12.75" customHeight="1"/>
-    <row r="44" spans="1:11" ht="12.75" customHeight="1"/>
-    <row r="45" spans="1:11" ht="12.75" customHeight="1"/>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1"/>
-    <row r="47" spans="1:11" ht="12.75" customHeight="1"/>
-    <row r="48" spans="1:11" ht="12.75" customHeight="1"/>
-    <row r="49" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="50" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="51" spans="11:11" ht="12.75" customHeight="1">
-      <c r="K51" s="14"/>
-    </row>
-    <row r="52" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="53" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="54" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="55" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="56" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="57" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="58" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="59" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="60" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="61" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="62" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="63" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="64" spans="11:11" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="10"/>
+    </row>
+    <row r="54" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="10"/>
+    </row>
+    <row r="55" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="10"/>
+    </row>
+    <row r="56" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="13"/>
+    </row>
+    <row r="57" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="58" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="59" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="60" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="61" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="62" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="63" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="64" spans="1:11" ht="12.75" customHeight="1"/>
+    <row r="65" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="66" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="67" spans="11:11" ht="12.75" customHeight="1">
+      <c r="K67" s="14"/>
+    </row>
+    <row r="68" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="69" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="70" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="71" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="72" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="73" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="74" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="75" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="76" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="77" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="78" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="79" spans="11:11" ht="12.75" customHeight="1"/>
+    <row r="80" spans="11:11" ht="12.75" customHeight="1"/>
     <row r="81" ht="12.75" customHeight="1"/>
     <row r="82" ht="12.75" customHeight="1"/>
     <row r="83" ht="12.75" customHeight="1"/>
@@ -7776,6 +8528,22 @@
     <row r="1005" ht="12.75" customHeight="1"/>
     <row r="1006" ht="12.75" customHeight="1"/>
     <row r="1007" ht="12.75" customHeight="1"/>
+    <row r="1008" ht="12.75" customHeight="1"/>
+    <row r="1009" ht="12.75" customHeight="1"/>
+    <row r="1010" ht="12.75" customHeight="1"/>
+    <row r="1011" ht="12.75" customHeight="1"/>
+    <row r="1012" ht="12.75" customHeight="1"/>
+    <row r="1013" ht="12.75" customHeight="1"/>
+    <row r="1014" ht="12.75" customHeight="1"/>
+    <row r="1015" ht="12.75" customHeight="1"/>
+    <row r="1016" ht="12.75" customHeight="1"/>
+    <row r="1017" ht="12.75" customHeight="1"/>
+    <row r="1018" ht="12.75" customHeight="1"/>
+    <row r="1019" ht="12.75" customHeight="1"/>
+    <row r="1020" ht="12.75" customHeight="1"/>
+    <row r="1021" ht="12.75" customHeight="1"/>
+    <row r="1022" ht="12.75" customHeight="1"/>
+    <row r="1023" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="I2:I4"/>
@@ -7801,8 +8569,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -7813,19 +8581,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="30"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -7837,65 +8605,65 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="51"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="25"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="80">
+      <c r="E2" s="63"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="66">
         <v>45631</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="40"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="51"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="25"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="41"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="51"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="25"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="41"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="59"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="70" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="64"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="73" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="22"/>
@@ -7906,24 +8674,24 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
-      <c r="J6" s="60"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A7" s="71" t="e" vm="1">
+      <c r="A7" s="75" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77"/>
     </row>
     <row r="8" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A8" s="51"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -7932,10 +8700,10 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="74"/>
+      <c r="J8" s="78"/>
     </row>
     <row r="9" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A9" s="51"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -7944,10 +8712,10 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="74"/>
+      <c r="J9" s="78"/>
     </row>
     <row r="10" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A10" s="51"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -7956,10 +8724,10 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="74"/>
+      <c r="J10" s="78"/>
     </row>
     <row r="11" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A11" s="51"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -7968,10 +8736,10 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="74"/>
+      <c r="J11" s="78"/>
     </row>
     <row r="12" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A12" s="51"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -7980,10 +8748,10 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="74"/>
+      <c r="J12" s="78"/>
     </row>
     <row r="13" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A13" s="51"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -7992,10 +8760,10 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="74"/>
+      <c r="J13" s="78"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="73" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="22"/>
@@ -8006,15 +8774,15 @@
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="60"/>
+      <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="73" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="23"/>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="35" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="22"/>
@@ -8029,7 +8797,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="73" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="22"/>
@@ -8046,14 +8814,14 @@
       <c r="G16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="75" t="s">
+      <c r="H16" s="79" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="22"/>
-      <c r="J16" s="60"/>
+      <c r="J16" s="36"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="72" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="22"/>
@@ -8066,14 +8834,14 @@
         <v>54</v>
       </c>
       <c r="G17" s="18"/>
-      <c r="H17" s="59" t="s">
+      <c r="H17" s="35" t="s">
         <v>60</v>
       </c>
       <c r="I17" s="22"/>
-      <c r="J17" s="60"/>
+      <c r="J17" s="36"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="72" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="22"/>
@@ -8086,14 +8854,14 @@
         <v>55</v>
       </c>
       <c r="G18" s="18"/>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="35" t="s">
         <v>61</v>
       </c>
       <c r="I18" s="22"/>
-      <c r="J18" s="60"/>
+      <c r="J18" s="36"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="72" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="22"/>
@@ -8106,14 +8874,14 @@
         <v>56</v>
       </c>
       <c r="G19" s="18"/>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="35" t="s">
         <v>62</v>
       </c>
       <c r="I19" s="22"/>
-      <c r="J19" s="60"/>
+      <c r="J19" s="36"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="72" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="22"/>
@@ -8126,14 +8894,14 @@
         <v>57</v>
       </c>
       <c r="G20" s="18"/>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="35" t="s">
         <v>63</v>
       </c>
       <c r="I20" s="22"/>
-      <c r="J20" s="60"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="72" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="22"/>
@@ -8146,14 +8914,14 @@
         <v>58</v>
       </c>
       <c r="G21" s="18"/>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="35" t="s">
         <v>64</v>
       </c>
       <c r="I21" s="22"/>
-      <c r="J21" s="60"/>
+      <c r="J21" s="36"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="72" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="22"/>
@@ -8166,25 +8934,25 @@
         <v>59</v>
       </c>
       <c r="G22" s="18"/>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="35" t="s">
         <v>65</v>
       </c>
       <c r="I22" s="22"/>
-      <c r="J22" s="60"/>
+      <c r="J22" s="36"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="69"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="I23" s="46"/>
-      <c r="J23" s="62"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
@@ -9165,19 +9933,8 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
@@ -9194,8 +9951,19 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/プロジェクト型演習_成果物(登録).xlsx
+++ b/プロジェクト型演習_成果物(登録).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjus\OneDrive\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49354BBB-19C0-4A4C-9F2D-05D8ED5723E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC65B11-BED2-487A-BAAA-6D0ECA0B87AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="11440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -343,6 +343,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1052,23 +1053,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1076,11 +1110,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1097,26 +1131,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1127,44 +1152,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1178,13 +1179,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1208,6 +1206,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1226,6 +1227,433 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5245217C-A71A-1440-40EB-14F89F332815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7978140" y="1059180"/>
+          <a:ext cx="3329940" cy="2179320"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -134792"/>
+            <a:gd name="adj2" fmla="val 109703"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>日付入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>549537</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>251012</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{230D4C6E-E686-4EE4-B5F4-4B9624B91F0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9630784" y="328556"/>
+          <a:ext cx="3305287" cy="908573"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -310536"/>
+            <a:gd name="adj2" fmla="val -66870"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>提出の際はセルを左上に合わせて</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>208878</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>510989</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>645459</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC17179C-D398-3677-BA09-A2ADAB817523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12293302" y="1619474"/>
+          <a:ext cx="3305287" cy="1285091"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -301857"/>
+            <a:gd name="adj2" fmla="val -67857"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>明確化させるとなお良し</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>例）業務効率化のため、新規タスクを登録・管理する機能を提供する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47513</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>86509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>394447</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B12CAFFE-891D-CB15-91FD-6224C9B15941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12131937" y="5124674"/>
+          <a:ext cx="3950745" cy="1688502"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -234394"/>
+            <a:gd name="adj2" fmla="val -102601"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>・③ってなんでしたっけ？</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>・「期限とメモ以外の項目で空欄がある場合登録できない」具体的に対応する抱負を考えている場合はそこまで詳細に書くとよい</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>「期限が過去の日付で指定された場合、エラーとして</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>『</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>有効な期限を入力してください</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>』</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>と表示する。」など</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>773654</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>636494</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCCE4786-44C3-6258-8E49-5D45D0D56DE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2970007" y="5868746"/>
+          <a:ext cx="3305287" cy="1285091"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -44466"/>
+            <a:gd name="adj2" fmla="val -124362"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>具体的には、マスタ名まで書くとよし</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>新規のタスクが登録されていること（〇〇マスタ、〇〇マスタ）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+          </a:br>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4137,6 +4565,265 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295387</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>65891</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9758C31-7E27-48CA-9195-6960D9C9F24F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10309860" y="5661660"/>
+          <a:ext cx="3305287" cy="1285091"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -127338"/>
+            <a:gd name="adj2" fmla="val -19235"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>書き途中？</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>例として、「過去の日付は入力できない」</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>など書いておくとよい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600187</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>27791</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E81B7A-044A-09C3-4A2C-B112A260D366}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8206740" y="6987540"/>
+          <a:ext cx="3305287" cy="1285091"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -72008"/>
+            <a:gd name="adj2" fmla="val -82681"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>ステータスコードを参照し、だとシステム内部の作りがわからない人が見たときに具体的にわからないので</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>ステータスコードを参照</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>「進行中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>完了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>保留 の選択肢を表示」する。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1072627</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>65891</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89344197-3E06-919D-0616-5C83382D5069}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2270760" y="7025640"/>
+          <a:ext cx="3305287" cy="1285091"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52714"/>
+            <a:gd name="adj2" fmla="val -140198"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>ステータスコードの指摘と同じく</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -4401,14 +5088,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16" width="7.7265625" customWidth="1"/>
-    <col min="17" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="16" width="7.77734375" customWidth="1"/>
+    <col min="17" max="26" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
@@ -5565,6 +6252,7 @@
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5572,31 +6260,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:J11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="5.08984375" customWidth="1"/>
-    <col min="4" max="10" width="16.7265625" customWidth="1"/>
-    <col min="11" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="3" width="5.109375" customWidth="1"/>
+    <col min="4" max="10" width="16.77734375" customWidth="1"/>
+    <col min="11" max="26" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="61" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
@@ -5608,70 +6296,70 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="43"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="25"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="62" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="66">
+      <c r="E2" s="32"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="37">
         <v>45631</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="43"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="25"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="59"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="60"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="32" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="45" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="46" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="22"/>
@@ -5679,15 +6367,15 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
-      <c r="J6" s="36"/>
+      <c r="J6" s="47"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="45" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="46" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="22"/>
@@ -5695,15 +6383,15 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
-      <c r="J7" s="36"/>
+      <c r="J7" s="47"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="46" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="22"/>
@@ -5711,17 +6399,17 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
-      <c r="J8" s="36"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="23"/>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="66" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="22"/>
@@ -5729,29 +6417,29 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
-      <c r="J9" s="36"/>
+      <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="44" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="23"/>
-      <c r="D10" s="35"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="36"/>
+      <c r="J10" s="47"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="44" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="23"/>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="66" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="22"/>
@@ -5759,15 +6447,15 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
-      <c r="J11" s="36"/>
+      <c r="J11" s="47"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="22"/>
@@ -5775,21 +6463,21 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
-      <c r="J12" s="36"/>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -6780,17 +7468,14 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -6799,18 +7484,22 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6818,32 +7507,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K1023"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="5.08984375" customWidth="1"/>
-    <col min="4" max="11" width="16.7265625" customWidth="1"/>
-    <col min="12" max="27" width="8.7265625" customWidth="1"/>
+    <col min="1" max="3" width="5.109375" customWidth="1"/>
+    <col min="4" max="11" width="16.77734375" customWidth="1"/>
+    <col min="12" max="27" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
       <c r="A1" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="61" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="29" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="68"/>
-      <c r="H1" s="49"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
@@ -6855,49 +7544,49 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="43"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="25"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="62" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="62"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="69"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="66">
+      <c r="H2" s="32"/>
+      <c r="I2" s="37">
         <v>45631</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="58"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="43"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="25"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="64"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="70"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="59"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="60"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -7159,7 +7848,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" ht="12.5" customHeight="1">
+    <row r="25" spans="1:11" ht="12.45" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -8569,31 +9258,31 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="5.08984375" customWidth="1"/>
-    <col min="4" max="10" width="16.7265625" customWidth="1"/>
-    <col min="11" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="3" width="5.109375" customWidth="1"/>
+    <col min="4" max="10" width="16.77734375" customWidth="1"/>
+    <col min="11" max="26" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
       <c r="A1" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="61" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
@@ -8605,65 +9294,65 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="43"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="25"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="62" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="66">
+      <c r="E2" s="32"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="37">
         <v>45631</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="43"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="25"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="59"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="43"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="25"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="59"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="74" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="71" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="22"/>
@@ -8674,24 +9363,24 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
-      <c r="J6" s="36"/>
+      <c r="J6" s="47"/>
     </row>
-    <row r="7" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A7" s="75" t="e" vm="1">
+    <row r="7" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A7" s="74" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="77"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76"/>
     </row>
-    <row r="8" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A8" s="43"/>
+    <row r="8" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A8" s="54"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -8700,10 +9389,10 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="78"/>
+      <c r="J8" s="77"/>
     </row>
-    <row r="9" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A9" s="43"/>
+    <row r="9" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A9" s="54"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -8712,10 +9401,10 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="78"/>
+      <c r="J9" s="77"/>
     </row>
-    <row r="10" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A10" s="43"/>
+    <row r="10" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A10" s="54"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -8724,10 +9413,10 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="78"/>
+      <c r="J10" s="77"/>
     </row>
-    <row r="11" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A11" s="43"/>
+    <row r="11" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A11" s="54"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -8736,10 +9425,10 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="78"/>
+      <c r="J11" s="77"/>
     </row>
-    <row r="12" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A12" s="43"/>
+    <row r="12" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A12" s="54"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -8748,10 +9437,10 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="78"/>
+      <c r="J12" s="77"/>
     </row>
-    <row r="13" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A13" s="43"/>
+    <row r="13" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A13" s="54"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -8760,10 +9449,10 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="78"/>
+      <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="71" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="22"/>
@@ -8774,15 +9463,15 @@
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="36"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="71" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="23"/>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="46" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="22"/>
@@ -8797,7 +9486,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="71" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="22"/>
@@ -8814,11 +9503,11 @@
       <c r="G16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="79" t="s">
+      <c r="H16" s="78" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="22"/>
-      <c r="J16" s="36"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1">
       <c r="A17" s="72" t="s">
@@ -8834,11 +9523,11 @@
         <v>54</v>
       </c>
       <c r="G17" s="18"/>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="46" t="s">
         <v>60</v>
       </c>
       <c r="I17" s="22"/>
-      <c r="J17" s="36"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
       <c r="A18" s="72" t="s">
@@ -8854,11 +9543,11 @@
         <v>55</v>
       </c>
       <c r="G18" s="18"/>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="46" t="s">
         <v>61</v>
       </c>
       <c r="I18" s="22"/>
-      <c r="J18" s="36"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1">
       <c r="A19" s="72" t="s">
@@ -8874,11 +9563,11 @@
         <v>56</v>
       </c>
       <c r="G19" s="18"/>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="46" t="s">
         <v>62</v>
       </c>
       <c r="I19" s="22"/>
-      <c r="J19" s="36"/>
+      <c r="J19" s="47"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
       <c r="A20" s="72" t="s">
@@ -8894,11 +9583,11 @@
         <v>57</v>
       </c>
       <c r="G20" s="18"/>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="46" t="s">
         <v>63</v>
       </c>
       <c r="I20" s="22"/>
-      <c r="J20" s="36"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1">
       <c r="A21" s="72" t="s">
@@ -8914,11 +9603,11 @@
         <v>58</v>
       </c>
       <c r="G21" s="18"/>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="46" t="s">
         <v>64</v>
       </c>
       <c r="I21" s="22"/>
-      <c r="J21" s="36"/>
+      <c r="J21" s="47"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1">
       <c r="A22" s="72" t="s">
@@ -8934,25 +9623,25 @@
         <v>59</v>
       </c>
       <c r="G22" s="18"/>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="46" t="s">
         <v>65</v>
       </c>
       <c r="I22" s="22"/>
-      <c r="J22" s="36"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="71"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="39"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="63"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
@@ -9933,11 +10622,22 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D5:J5"/>
@@ -9947,26 +10647,16 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A23:C23"/>
     <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/プロジェクト型演習_成果物(登録).xlsx
+++ b/プロジェクト型演習_成果物(登録).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\ProjectX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC65B11-BED2-487A-BAAA-6D0ECA0B87AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063C2D24-FFC2-4B41-9D09-AFEFC66912C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="3">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -35,22 +35,39 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="3">
     <bk>
       <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
-  </si>
-  <si>
-    <t>○○○○システム</t>
   </si>
   <si>
     <t>初版</t>
@@ -154,26 +171,11 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>新規のタスクをタスク管理システムに登録する</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>商品企画部の従業員</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>必要なマスタが事前に登録されていること</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>①メニュー画面からタスク登録画面を立ち上げる
-②タスク登録画面で新規のタスクを登録する
-③入力が終わったら登録ボタンを押す
-④登録完了画面を表示する</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>新規のタスクが登録されていること</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -261,19 +263,7 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>カテゴリーIDを参照し、カテゴリー名を表示する</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>カレンダーの仕様を調べておく</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>担当者名を検索し、ユーザIDを取得</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ステータスコードを参照し、ステータス名を表示する</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -281,39 +271,497 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
+    <t>篠</t>
+    <rPh sb="0" eb="1">
+      <t>シノ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスク管理システム</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>①メニュー画面からタスク登録画面を立ち上げる
+②タスク登録画面で新規のタスクを登録する
+③入力が終わったら登録ボタンを押す※1
+④登録完了画面を表示する</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>業務効率化のため、新規のタスクをタスク管理システムに登録・管理する機能を提供する</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>新規のタスクが登録されていること(ユーザマスタ、カテゴリマスタ、ステータスマスタ)</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>過去の日付は入力できない</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ステータスコードを参照し、「未着手, 着手, 完了」の選択肢を表示する</t>
+    <rPh sb="14" eb="17">
+      <t>ミチャクシュ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チャクシュ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>カテゴリーIDを参照し、「新商品A：開発プロジェクト, 既存商品B：改良プロジェクト」の選択肢を表示する</t>
+    <rPh sb="13" eb="16">
+      <t>シンショウヒン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
     <t>※1　詳細画面で表示した値を設定する</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>③１．期限とメモ以外の項目で空欄がある場合登録できない
-③２．期限の項目で過去の期限を指定された場合登録できない</t>
-    <rPh sb="31" eb="33">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
+    <t>登録</t>
+    <rPh sb="0" eb="2">
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>篠</t>
-    <rPh sb="0" eb="1">
-      <t>シノ</t>
+    <t>メニュー画面へ</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <rPh sb="0" eb="2">
+      <t>トリケシ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>reset</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスク登録完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスク登録失敗画面</t>
+    <rPh sb="5" eb="7">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>menu.jsp</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>task-register.jsp</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスク登録画面へ</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>「タスク登録画面へ」を押すとタスク登録画面に遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>「メニュー画面へ」を押すとメニュー画面に遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>「登録」を押して登録に成功したら登録成功画面に遷移する</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>「メニュー画面へ」を押すとメニュー画面に遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>「取消」を押すと入力した値を削除する</t>
+    <rPh sb="1" eb="3">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>レイヤー</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>配置場所</t>
+    <rPh sb="0" eb="4">
+      <t>ハイチバショ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>webapp</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>task-register.jsp</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスク情報を入力する登録フォーム画面</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>【登録項目】
+①タスク名
+②カテゴリ情報
+③期限
+④担当者情報
+⑤ステータス情報
+⑥メモ</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>register-success.jsp</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスク情報登録の完了を表示する画面</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>register-failure.jsp</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスク情報登録の失敗を表示する画面</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>TaskAddServlet.java</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスク情報登録を行うコントロールクラス</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>model.dao</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>TaskCategoryDAO</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスクテーブルにアクセスするDAOクラス</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>model.entity</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>TaskCategoryBean</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスク情報を保持するEntityクラス</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Servlet</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>※1.期限とメモ以外の項目で空欄がある場合、エラーとして『このフィールドは入力必須です』と表示し、開発者ツールを利用して空白がある状態で登録した場合、登録失敗画面に遷移する
+※1.期限が過去の日付で指定された場合、エラーとして『有効な期限を入力してください』と表示する</t>
+    <rPh sb="37" eb="39">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -325,7 +773,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]h:mm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -381,6 +829,20 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -396,7 +858,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -961,11 +1423,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1029,6 +1626,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1053,12 +1653,105 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1068,105 +1761,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1179,12 +1779,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1203,10 +1809,136 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1227,433 +1959,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>297180</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5245217C-A71A-1440-40EB-14F89F332815}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7978140" y="1059180"/>
-          <a:ext cx="3329940" cy="2179320"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -134792"/>
-            <a:gd name="adj2" fmla="val 109703"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>日付入力</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>549537</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95474</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>251012</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{230D4C6E-E686-4EE4-B5F4-4B9624B91F0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9630784" y="328556"/>
-          <a:ext cx="3305287" cy="908573"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -310536"/>
-            <a:gd name="adj2" fmla="val -66870"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>提出の際はセルを左上に合わせて</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>208878</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>23756</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>510989</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>645459</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC17179C-D398-3677-BA09-A2ADAB817523}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12293302" y="1619474"/>
-          <a:ext cx="3305287" cy="1285091"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -301857"/>
-            <a:gd name="adj2" fmla="val -67857"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>明確化させるとなお良し</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>。</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>例）業務効率化のため、新規タスクを登録・管理する機能を提供する</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47513</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>86509</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>394447</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B12CAFFE-891D-CB15-91FD-6224C9B15941}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12131937" y="5124674"/>
-          <a:ext cx="3950745" cy="1688502"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -234394"/>
-            <a:gd name="adj2" fmla="val -102601"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>・③ってなんでしたっけ？</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>・「期限とメモ以外の項目で空欄がある場合登録できない」具体的に対応する抱負を考えている場合はそこまで詳細に書くとよい</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>「期限が過去の日付で指定された場合、エラーとして</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>『</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>有効な期限を入力してください</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>』</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>と表示する。」など</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>773654</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>14793</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>636494</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>8966</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCCE4786-44C3-6258-8E49-5D45D0D56DE1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2970007" y="5868746"/>
-          <a:ext cx="3305287" cy="1285091"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -44466"/>
-            <a:gd name="adj2" fmla="val -124362"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>具体的には、マスタ名まで書くとよし</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>新規のタスクが登録されていること（〇〇マスタ、〇〇マスタ）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-          </a:br>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4565,265 +4870,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>295387</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>65891</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9758C31-7E27-48CA-9195-6960D9C9F24F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10309860" y="5661660"/>
-          <a:ext cx="3305287" cy="1285091"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -127338"/>
-            <a:gd name="adj2" fmla="val -19235"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>書き途中？</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>例として、「過去の日付は入力できない」</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>など書いておくとよい</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600187</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>27791</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E81B7A-044A-09C3-4A2C-B112A260D366}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8206740" y="6987540"/>
-          <a:ext cx="3305287" cy="1285091"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -72008"/>
-            <a:gd name="adj2" fmla="val -82681"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>ステータスコードを参照し、だとシステム内部の作りがわからない人が見たときに具体的にわからないので</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>ステータスコードを参照</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>「進行中</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>完了</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>保留 の選択肢を表示」する。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1072627</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>65891</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89344197-3E06-919D-0616-5C83382D5069}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2270760" y="7025640"/>
-          <a:ext cx="3305287" cy="1285091"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 52714"/>
-            <a:gd name="adj2" fmla="val -140198"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>ステータスコードの指摘と同じく</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -4865,9 +4911,17 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <rv s="0">
     <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -4885,6 +4939,8 @@
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
 </richValueRels>
 </file>
 
@@ -5088,97 +5144,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16" width="7.77734375" customWidth="1"/>
-    <col min="17" max="26" width="8.77734375" customWidth="1"/>
+    <col min="1" max="16" width="7.81640625" customWidth="1"/>
+    <col min="17" max="26" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -5198,46 +5252,48 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="E8" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="21"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="82">
+        <v>45632</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="21"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="23"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -5246,13 +5302,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="G17" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -6252,7 +6308,6 @@
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6260,224 +6315,224 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="5.109375" customWidth="1"/>
-    <col min="4" max="10" width="16.77734375" customWidth="1"/>
-    <col min="11" max="26" width="8.77734375" customWidth="1"/>
+    <col min="1" max="3" width="5.08984375" customWidth="1"/>
+    <col min="4" max="10" width="16.81640625" customWidth="1"/>
+    <col min="11" max="26" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1">
+      <c r="A2" s="44"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="67">
+        <v>45631</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="60"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A5" s="49" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="31" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="37">
-        <v>45631</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="41"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="42"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="43"/>
-    </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="57" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="64" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A7" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="65"/>
-    </row>
-    <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="46" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A8" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="47"/>
-    </row>
-    <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="47"/>
-    </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="45" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="59" t="s">
+      <c r="B9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="37"/>
+    </row>
+    <row r="10" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A10" s="53"/>
+      <c r="B10" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="47"/>
-    </row>
-    <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="60"/>
-      <c r="B10" s="44" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" spans="1:10" ht="64.5" customHeight="1">
+      <c r="A11" s="54"/>
+      <c r="B11" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="47"/>
-    </row>
-    <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="44" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="37"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A12" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="47"/>
-    </row>
-    <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="45" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A13" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="47"/>
-    </row>
-    <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="63"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -7468,6 +7523,25 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
@@ -7476,30 +7550,10 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7507,86 +7561,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K1023"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="5.109375" customWidth="1"/>
-    <col min="4" max="11" width="16.77734375" customWidth="1"/>
-    <col min="12" max="27" width="8.77734375" customWidth="1"/>
+    <col min="1" max="3" width="5.08984375" customWidth="1"/>
+    <col min="4" max="11" width="16.81640625" customWidth="1"/>
+    <col min="12" max="27" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="29" t="s">
+      <c r="A1" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="50"/>
+      <c r="F1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="37">
+      <c r="A2" s="44"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="67">
         <v>45631</v>
       </c>
-      <c r="J2" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="41"/>
+      <c r="J2" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="42"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="43"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -7848,7 +7902,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" ht="12.45" customHeight="1">
+    <row r="25" spans="1:11" ht="12.5" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -9256,466 +9310,1296 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:J1018"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="5.109375" customWidth="1"/>
-    <col min="4" max="10" width="16.77734375" customWidth="1"/>
-    <col min="11" max="26" width="8.77734375" customWidth="1"/>
+    <col min="1" max="3" width="5.08984375" customWidth="1"/>
+    <col min="4" max="10" width="16.81640625" customWidth="1"/>
+    <col min="11" max="26" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" thickTop="1">
+      <c r="A1" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="114" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="115"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1">
+      <c r="A2" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="117"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1">
+      <c r="A3" s="116"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="119"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1">
+      <c r="A4" s="116"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="119"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
+      <c r="A5" s="116"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="119"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1">
+      <c r="A6" s="116"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="119"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1">
+      <c r="A7" s="116"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="119"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1">
+      <c r="A8" s="116"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="119"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1">
+      <c r="A9" s="116"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="119"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1">
+      <c r="A10" s="116"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="117"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1">
+      <c r="A11" s="116"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="117"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1">
+      <c r="A12" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="124" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="117"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1">
+      <c r="A13" s="116"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="117"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1">
+      <c r="A14" s="116" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="117"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1">
+      <c r="A15" s="120"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="123" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="122"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1" thickTop="1">
+      <c r="A16" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="101"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="98"/>
+      <c r="F16" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="98"/>
+      <c r="H16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18" customHeight="1">
+      <c r="A17" s="103"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="90"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="67">
+        <v>45631</v>
+      </c>
+      <c r="I17" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="59"/>
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1">
+      <c r="A18" s="103"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="107"/>
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A19" s="105"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="108"/>
+    </row>
+    <row r="20" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A20" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="37">
-        <v>45631</v>
-      </c>
-      <c r="I2" s="40" t="s">
+      <c r="B20" s="99"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="97"/>
+    </row>
+    <row r="21" spans="1:10" ht="21" customHeight="1">
+      <c r="A21" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="96"/>
+    </row>
+    <row r="22" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A22" s="77" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="79"/>
+    </row>
+    <row r="23" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A23" s="44"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="80"/>
+    </row>
+    <row r="24" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A24" s="44"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="80"/>
+    </row>
+    <row r="25" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A25" s="44"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="80"/>
+    </row>
+    <row r="26" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A26" s="44"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="80"/>
+    </row>
+    <row r="27" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A27" s="44"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="80"/>
+    </row>
+    <row r="28" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A28" s="44"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="80"/>
+    </row>
+    <row r="29" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A29" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="37"/>
+    </row>
+    <row r="30" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A30" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A31" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="23"/>
+      <c r="J31" s="37"/>
+    </row>
+    <row r="32" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A32" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="J32" s="37"/>
+    </row>
+    <row r="33" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A33" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="41"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="42"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="42"/>
-    </row>
-    <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="79" t="s">
+      <c r="F33" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="23"/>
+      <c r="J33" s="37"/>
+    </row>
+    <row r="34" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A34" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="23"/>
+      <c r="J34" s="37"/>
+    </row>
+    <row r="35" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A35" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="23"/>
+      <c r="J35" s="37"/>
+    </row>
+    <row r="36" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A36" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="23"/>
+      <c r="J36" s="37"/>
+    </row>
+    <row r="37" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A37" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" s="23"/>
+      <c r="J37" s="37"/>
+    </row>
+    <row r="38" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A38" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="84"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="83"/>
+      <c r="G38" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" s="86"/>
+      <c r="J38" s="87"/>
+    </row>
+    <row r="39" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A39" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="84"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="83"/>
+      <c r="G39" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39" s="86"/>
+      <c r="J39" s="87"/>
+    </row>
+    <row r="40" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A40" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="84"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="83"/>
+      <c r="G40" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="86"/>
+      <c r="J40" s="87"/>
+    </row>
+    <row r="41" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A41" s="74"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
+    </row>
+    <row r="42" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A42" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="34"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="35"/>
+    </row>
+    <row r="43" spans="1:10" ht="21" customHeight="1">
+      <c r="A43" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="65"/>
-    </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="71" t="s">
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="37"/>
+    </row>
+    <row r="44" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A44" s="77" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="79"/>
+    </row>
+    <row r="45" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A45" s="44"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="80"/>
+    </row>
+    <row r="46" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A46" s="44"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="80"/>
+    </row>
+    <row r="47" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A47" s="44"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="80"/>
+    </row>
+    <row r="48" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A48" s="44"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="80"/>
+    </row>
+    <row r="49" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A49" s="44"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="80"/>
+    </row>
+    <row r="50" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A50" s="44"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="80"/>
+    </row>
+    <row r="51" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A51" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="47"/>
-    </row>
-    <row r="7" spans="1:10" ht="35.549999999999997" customHeight="1">
-      <c r="A7" s="74" t="e" vm="1">
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="37"/>
+    </row>
+    <row r="52" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A52" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A53" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="23"/>
+      <c r="J53" s="37"/>
+    </row>
+    <row r="54" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A54" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="17"/>
+      <c r="G54" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H54" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I54" s="23"/>
+      <c r="J54" s="37"/>
+    </row>
+    <row r="55" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A55" s="72"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="37"/>
+    </row>
+    <row r="56" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A56" s="72"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="37"/>
+    </row>
+    <row r="57" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A57" s="72"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="37"/>
+    </row>
+    <row r="58" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A58" s="72"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="37"/>
+    </row>
+    <row r="59" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A59" s="72"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="37"/>
+    </row>
+    <row r="60" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A60" s="72"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="86"/>
+      <c r="J60" s="87"/>
+    </row>
+    <row r="61" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A61" s="72"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="86"/>
+      <c r="J61" s="87"/>
+    </row>
+    <row r="62" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A62" s="72"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="87"/>
+    </row>
+    <row r="63" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A63" s="74"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="32"/>
+    </row>
+    <row r="64" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A64" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="34"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="35"/>
+    </row>
+    <row r="65" spans="1:10" ht="21" customHeight="1">
+      <c r="A65" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="37"/>
+    </row>
+    <row r="66" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A66" s="77" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76"/>
-    </row>
-    <row r="8" spans="1:10" ht="35.549999999999997" customHeight="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="77"/>
-    </row>
-    <row r="9" spans="1:10" ht="35.549999999999997" customHeight="1">
-      <c r="A9" s="54"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="77"/>
-    </row>
-    <row r="10" spans="1:10" ht="35.549999999999997" customHeight="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="77"/>
-    </row>
-    <row r="11" spans="1:10" ht="35.549999999999997" customHeight="1">
-      <c r="A11" s="54"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="77"/>
-    </row>
-    <row r="12" spans="1:10" ht="35.549999999999997" customHeight="1">
-      <c r="A12" s="54"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="77"/>
-    </row>
-    <row r="13" spans="1:10" ht="35.549999999999997" customHeight="1">
-      <c r="A13" s="54"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="77"/>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="71" t="s">
+      <c r="B66" s="78"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="78"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="78"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="79"/>
+    </row>
+    <row r="67" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A67" s="44"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="80"/>
+    </row>
+    <row r="68" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A68" s="44"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="80"/>
+    </row>
+    <row r="69" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A69" s="44"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="80"/>
+    </row>
+    <row r="70" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A70" s="44"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="80"/>
+    </row>
+    <row r="71" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A71" s="44"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="80"/>
+    </row>
+    <row r="72" spans="1:10" ht="35.5" customHeight="1">
+      <c r="A72" s="44"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="80"/>
+    </row>
+    <row r="73" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A73" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="37"/>
+    </row>
+    <row r="74" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A74" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="47"/>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="71" t="s">
+      <c r="B74" s="23"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="15" t="s">
+      <c r="J74" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A75" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="71" t="s">
+      <c r="B75" s="23"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="15" t="s">
+      <c r="E75" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="F75" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="G75" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="47"/>
-    </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="47"/>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="47"/>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="47"/>
-    </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="47"/>
-    </row>
-    <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="47"/>
-    </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="47"/>
-    </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="63"/>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
-    <row r="49" ht="12.75" customHeight="1"/>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
+      <c r="H75" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" s="23"/>
+      <c r="J75" s="37"/>
+    </row>
+    <row r="76" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A76" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="23"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F76" s="17"/>
+      <c r="G76" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H76" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="I76" s="23"/>
+      <c r="J76" s="37"/>
+    </row>
+    <row r="77" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A77" s="72"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="37"/>
+    </row>
+    <row r="78" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A78" s="72"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="37"/>
+    </row>
+    <row r="79" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A79" s="72"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="37"/>
+    </row>
+    <row r="80" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A80" s="72"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="37"/>
+    </row>
+    <row r="81" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A81" s="72"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="37"/>
+    </row>
+    <row r="82" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A82" s="72"/>
+      <c r="B82" s="84"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="83"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="86"/>
+      <c r="J82" s="87"/>
+    </row>
+    <row r="83" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A83" s="72"/>
+      <c r="B83" s="84"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="83"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="86"/>
+      <c r="J83" s="87"/>
+    </row>
+    <row r="84" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A84" s="72"/>
+      <c r="B84" s="84"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="86"/>
+      <c r="J84" s="87"/>
+    </row>
+    <row r="85" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A85" s="74"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="32"/>
+    </row>
+    <row r="86" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="87" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="88" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="89" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="90" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="91" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="92" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="93" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="94" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="95" spans="1:10" ht="12.75" customHeight="1"/>
+    <row r="96" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="97" ht="12.75" customHeight="1"/>
     <row r="98" ht="12.75" customHeight="1"/>
     <row r="99" ht="12.75" customHeight="1"/>
@@ -10620,43 +11504,145 @@
     <row r="998" ht="12.75" customHeight="1"/>
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
+    <row r="1001" ht="12.75" customHeight="1"/>
+    <row r="1002" ht="12.75" customHeight="1"/>
+    <row r="1003" ht="12.75" customHeight="1"/>
+    <row r="1004" ht="12.75" customHeight="1"/>
+    <row r="1005" ht="12.75" customHeight="1"/>
+    <row r="1006" ht="12.75" customHeight="1"/>
+    <row r="1007" ht="12.75" customHeight="1"/>
+    <row r="1008" ht="12.75" customHeight="1"/>
+    <row r="1009" ht="12.75" customHeight="1"/>
+    <row r="1010" ht="12.75" customHeight="1"/>
+    <row r="1011" ht="12.75" customHeight="1"/>
+    <row r="1012" ht="12.75" customHeight="1"/>
+    <row r="1013" ht="12.75" customHeight="1"/>
+    <row r="1014" ht="12.75" customHeight="1"/>
+    <row r="1015" ht="12.75" customHeight="1"/>
+    <row r="1016" ht="12.75" customHeight="1"/>
+    <row r="1017" ht="12.75" customHeight="1"/>
+    <row r="1018" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
+  <mergeCells count="116">
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G12:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C11"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A66:J72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="F17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="A16:C19"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="D17:E19"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/プロジェクト型演習_成果物(登録).xlsx
+++ b/プロジェクト型演習_成果物(登録).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063C2D24-FFC2-4B41-9D09-AFEFC66912C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B251B030-93A6-4905-A926-81D2D14D5218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1629,6 +1629,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1653,119 +1665,122 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1779,60 +1794,84 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1848,97 +1887,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1963,15 +1963,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:colOff>158750</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1986,8 +1986,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342900" y="1174750"/>
-          <a:ext cx="2336800" cy="1841500"/>
+          <a:off x="57150" y="1162050"/>
+          <a:ext cx="2343150" cy="1841500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2038,13 +2038,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -2061,8 +2061,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="349250" y="3308350"/>
-          <a:ext cx="2336800" cy="1930400"/>
+          <a:off x="50800" y="3308350"/>
+          <a:ext cx="2343150" cy="1930400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2112,14 +2112,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -2136,7 +2136,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="355600" y="3194050"/>
+          <a:off x="57150" y="3194050"/>
           <a:ext cx="819150" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2175,16 +2175,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:colOff>69850</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2199,8 +2199,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="1447800"/>
-          <a:ext cx="2171700" cy="450850"/>
+          <a:off x="133350" y="1435100"/>
+          <a:ext cx="2178050" cy="450850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2264,16 +2264,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:colOff>69850</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2288,8 +2288,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="1962150"/>
-          <a:ext cx="2171700" cy="438150"/>
+          <a:off x="133350" y="1949450"/>
+          <a:ext cx="2178050" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2353,16 +2353,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2377,8 +2377,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="425450" y="2470150"/>
-          <a:ext cx="2171700" cy="469900"/>
+          <a:off x="139700" y="2457450"/>
+          <a:ext cx="2178050" cy="469900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2442,14 +2442,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1168400</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -2466,8 +2466,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="508000" y="3619500"/>
-          <a:ext cx="2019300" cy="1473200"/>
+          <a:off x="209550" y="3619500"/>
+          <a:ext cx="2025650" cy="1473200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2600,14 +2600,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1168400</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -2624,8 +2624,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="520700" y="3892550"/>
-          <a:ext cx="2006600" cy="6350"/>
+          <a:off x="222250" y="3892550"/>
+          <a:ext cx="2012950" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2655,14 +2655,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
@@ -2679,8 +2679,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="520700" y="4197350"/>
-          <a:ext cx="2000250" cy="12700"/>
+          <a:off x="222250" y="4197350"/>
+          <a:ext cx="2006600" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2711,13 +2711,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>546101</xdr:colOff>
+      <xdr:colOff>241301</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>88901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1075766</xdr:colOff>
+      <xdr:colOff>1075767</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>36919</xdr:rowOff>
     </xdr:to>
@@ -2734,8 +2734,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2775985" y="1166924"/>
-          <a:ext cx="7529432" cy="7907669"/>
+          <a:off x="2482851" y="1162051"/>
+          <a:ext cx="7882966" cy="7726768"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2849,15 +2849,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1026338</xdr:colOff>
+      <xdr:colOff>638988</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>88604</xdr:rowOff>
+      <xdr:rowOff>50504</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2872,8 +2872,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2934734" y="1542607"/>
-          <a:ext cx="3821371" cy="7421230"/>
+          <a:off x="2559050" y="1492250"/>
+          <a:ext cx="3845738" cy="7251404"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2916,15 +2916,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1100174</xdr:colOff>
+      <xdr:colOff>730250</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1004185</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2939,8 +2939,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6829941" y="1542607"/>
-          <a:ext cx="3403895" cy="4003896"/>
+          <a:off x="6496050" y="1485900"/>
+          <a:ext cx="3798185" cy="4006850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2983,15 +2983,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3006,8 +3006,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2940050" y="1435100"/>
-          <a:ext cx="819150" cy="101600"/>
+          <a:off x="2559050" y="1397000"/>
+          <a:ext cx="825500" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3046,15 +3046,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1102981</xdr:colOff>
+      <xdr:colOff>728331</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>51835</xdr:rowOff>
+      <xdr:rowOff>1035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>760081</xdr:colOff>
+      <xdr:colOff>385431</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>147085</xdr:rowOff>
+      <xdr:rowOff>96285</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3069,8 +3069,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6832748" y="1454742"/>
-          <a:ext cx="823728" cy="95250"/>
+          <a:off x="6494131" y="1391685"/>
+          <a:ext cx="831850" cy="95250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3109,15 +3109,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>790058</xdr:colOff>
+      <xdr:colOff>409058</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>930349</xdr:colOff>
+      <xdr:colOff>549349</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>147674</xdr:rowOff>
+      <xdr:rowOff>52424</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3132,8 +3132,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3019942" y="1873841"/>
-          <a:ext cx="3640174" cy="6986624"/>
+          <a:off x="2650608" y="1758950"/>
+          <a:ext cx="3664541" cy="6827874"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3992,16 +3992,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>24662</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>154024</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1034312</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>46074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>924590</xdr:colOff>
+      <xdr:colOff>759490</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>67782</xdr:rowOff>
+      <xdr:rowOff>118582</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4016,8 +4016,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6921057" y="1881815"/>
-          <a:ext cx="3233184" cy="1375734"/>
+          <a:off x="6800112" y="1912974"/>
+          <a:ext cx="3249428" cy="1342508"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4150,16 +4150,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>316024</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1182</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>869950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>646224</xdr:colOff>
+      <xdr:colOff>914400</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>26582</xdr:rowOff>
+      <xdr:rowOff>39282</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4174,8 +4174,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7212419" y="4652926"/>
-          <a:ext cx="2663456" cy="675168"/>
+          <a:off x="6635750" y="3511550"/>
+          <a:ext cx="3568700" cy="1728382"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4233,7 +4233,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>+ insert</a:t>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>insert</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -4245,7 +4261,22 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(tcus:TaskCategoryUserStatusBean)</a:t>
+            <a:t>(tcusbean:TaskCategoryUserStatusBean):int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+ selectCategoryId(tcusbean:TaskCategoryUserStatusBean)</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:solidFill>
@@ -4259,16 +4290,177 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>:int</a:t>
+            <a:t>:List&lt;TaskCategoryUserStatusBean&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+ selectUserId(tcusbean:TaskCategoryUserStatusBean)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:List&lt;TaskCategoryUserStatusBean&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>+ selectStatusCode(tcusbean:TaskCategoryUserStatusBean)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:List&lt;TaskCategoryUserStatusBean&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -4287,15 +4479,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
+      <xdr:colOff>558800</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>103373</xdr:rowOff>
+      <xdr:rowOff>8123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>620233</xdr:colOff>
+      <xdr:colOff>239233</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4310,8 +4502,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3169684" y="2156047"/>
-          <a:ext cx="3180316" cy="10927"/>
+          <a:off x="2800350" y="2033773"/>
+          <a:ext cx="3204683" cy="10927"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4342,15 +4534,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>928134</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66454</xdr:rowOff>
+      <xdr:colOff>547134</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>129954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>627617</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>77455</xdr:rowOff>
+      <xdr:colOff>246617</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>140955</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4365,8 +4557,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3158018" y="4393314"/>
-          <a:ext cx="3199366" cy="11001"/>
+          <a:off x="2788684" y="4219354"/>
+          <a:ext cx="3223733" cy="11001"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4396,16 +4588,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>23628</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>130249</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1033278</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>917206</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>130249</xdr:rowOff>
+      <xdr:colOff>752106</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4420,8 +4612,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6920023" y="2182923"/>
-          <a:ext cx="3226834" cy="0"/>
+          <a:off x="6799078" y="2206699"/>
+          <a:ext cx="3243078" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4451,16 +4643,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>16244</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1025894</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>16982</xdr:rowOff>
+      <xdr:rowOff>67782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>897122</xdr:colOff>
+      <xdr:colOff>732022</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>16982</xdr:rowOff>
+      <xdr:rowOff>67782</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4475,8 +4667,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6912639" y="2881866"/>
-          <a:ext cx="3214134" cy="0"/>
+          <a:off x="6791694" y="2887182"/>
+          <a:ext cx="3230378" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4507,15 +4699,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>474626</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>67782</xdr:rowOff>
+      <xdr:rowOff>118582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>481124</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1182</xdr:rowOff>
+      <xdr:colOff>309526</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4532,9 +4724,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8537649" y="3257549"/>
-          <a:ext cx="6498" cy="1395377"/>
+        <a:xfrm flipV="1">
+          <a:off x="8420100" y="3255482"/>
+          <a:ext cx="4726" cy="256068"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4567,15 +4759,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>915582</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>13882</xdr:rowOff>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>316024</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>14767</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>869950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127591</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4591,9 +4783,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6645349" y="4990510"/>
-          <a:ext cx="567070" cy="885"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6305550" y="4368800"/>
+          <a:ext cx="330200" cy="6941"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4625,16 +4817,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>316024</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>13882</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45041</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>646224</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>13882</xdr:rowOff>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45041</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4645,15 +4837,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="28" idx="1"/>
-          <a:endCxn id="28" idx="3"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7212419" y="4990510"/>
-          <a:ext cx="2663456" cy="0"/>
+          <a:off x="6623050" y="3816941"/>
+          <a:ext cx="3568700" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4684,15 +4873,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>42604</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>790058</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>65641</xdr:rowOff>
+      <xdr:colOff>409058</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>130987</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4710,12 +4899,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2591834" y="2745046"/>
-          <a:ext cx="428108" cy="2622107"/>
+          <a:off x="2317750" y="2692400"/>
+          <a:ext cx="332858" cy="2480487"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 65522"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
@@ -4746,15 +4935,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:colOff>69850</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>157422</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>790058</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>65641</xdr:rowOff>
+      <xdr:colOff>409058</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>130987</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4772,12 +4961,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2585484" y="2210096"/>
-          <a:ext cx="434458" cy="3157057"/>
+          <a:off x="2311400" y="2168525"/>
+          <a:ext cx="339208" cy="3004362"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 65296"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
@@ -4808,15 +4997,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>451145</xdr:colOff>
+      <xdr:colOff>155574</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>481123</xdr:colOff>
+      <xdr:colOff>304799</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>26582</xdr:rowOff>
+      <xdr:rowOff>39282</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4834,12 +5023,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4960162" y="1744109"/>
-          <a:ext cx="138224" cy="7029745"/>
+          <a:off x="4747621" y="1567453"/>
+          <a:ext cx="147232" cy="7197725"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 2909600"/>
+            <a:gd name="adj1" fmla="val 255265"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
@@ -5154,85 +5343,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -5252,48 +5441,48 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="22" t="s">
+      <c r="H13" s="28"/>
+      <c r="I13" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="22"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="82">
+      <c r="G14" s="26"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="34">
         <v>45632</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="22"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -5302,13 +5491,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -6327,19 +6516,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="62" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="50"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
@@ -6351,188 +6540,188 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="63" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="67">
+      <c r="E2" s="38"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="43">
         <v>45631</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="60"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="61"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="33" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="35"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
       <c r="A6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="36" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="37"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
       <c r="A7" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="36" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="37"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
       <c r="A8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="36" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="37"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="38" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="37"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55" t="s">
+      <c r="A10" s="66"/>
+      <c r="B10" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="37"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="54"/>
-      <c r="B11" s="55" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="38" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="37"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
       <c r="A12" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="36" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="37"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -7523,17 +7712,14 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -7542,14 +7728,17 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -7561,7 +7750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K1023"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -7573,20 +7762,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="62" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="50"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="36"/>
       <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
@@ -7598,49 +7787,49 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="63" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="67">
+      <c r="E2" s="38"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="43">
         <v>45631</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="59"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="60"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="61"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -9312,7 +9501,7 @@
   </sheetPr>
   <dimension ref="A1:J1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -9324,247 +9513,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="125" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="115"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88" t="s">
+      <c r="F2" s="79"/>
+      <c r="G2" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="117"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="116"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="118" t="s">
+      <c r="A3" s="84"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="119"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="82"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="116"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="119"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="82"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="116"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="119"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="116"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="119"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="82"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="116"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="119"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="82"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="116"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="119"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="82"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="116"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="119"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" s="116"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88" t="s">
+      <c r="A10" s="84"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88" t="s">
+      <c r="F10" s="79"/>
+      <c r="G10" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="117"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="80"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="116"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88" t="s">
+      <c r="A11" s="84"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88" t="s">
+      <c r="F11" s="79"/>
+      <c r="G11" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="117"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="80"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="124" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88" t="s">
+      <c r="F12" s="79"/>
+      <c r="G12" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="117"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="80"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
-      <c r="A13" s="116"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="117"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="80"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="116" t="s">
+      <c r="A14" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89" t="s">
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88" t="s">
+      <c r="F14" s="79"/>
+      <c r="G14" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="117"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="120"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="123" t="s">
+      <c r="A15" s="85"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="121" t="s">
+      <c r="E15" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121" t="s">
+      <c r="F15" s="86"/>
+      <c r="G15" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="122"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="87"/>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" thickTop="1">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="62" t="s">
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="98"/>
-      <c r="F16" s="62" t="s">
+      <c r="E16" s="122"/>
+      <c r="F16" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="98"/>
+      <c r="G16" s="122"/>
       <c r="H16" s="4" t="s">
         <v>7</v>
       </c>
@@ -9576,190 +9765,190 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1">
-      <c r="A17" s="103"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="63" t="s">
+      <c r="A17" s="116"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="67">
+      <c r="E17" s="103"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="43">
         <v>45631</v>
       </c>
-      <c r="I17" s="56" t="s">
+      <c r="I17" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="59"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1">
-      <c r="A18" s="103"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="107"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="112"/>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A19" s="105"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="108"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="113"/>
     </row>
     <row r="20" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="99"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="33" t="s">
+      <c r="B20" s="120"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="97"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="123"/>
     </row>
     <row r="21" spans="1:10" ht="21" customHeight="1">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="96"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="125"/>
     </row>
     <row r="22" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A22" s="77" t="e" vm="1">
+      <c r="A22" s="97" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="79"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="99"/>
     </row>
     <row r="23" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="80"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="80"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="100"/>
     </row>
     <row r="25" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="80"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="100"/>
     </row>
     <row r="26" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A26" s="44"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="80"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="100"/>
     </row>
     <row r="27" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="80"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="100"/>
     </row>
     <row r="28" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A28" s="44"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="80"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="100"/>
     </row>
     <row r="29" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="37"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="53"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="36" t="s">
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
       <c r="I30" s="15" t="s">
         <v>26</v>
       </c>
@@ -9768,11 +9957,11 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="15" t="s">
         <v>28</v>
       </c>
@@ -9785,18 +9974,18 @@
       <c r="G31" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="81" t="s">
+      <c r="H31" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="37"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="53"/>
     </row>
     <row r="32" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17" t="s">
         <v>40</v>
@@ -9805,18 +9994,18 @@
         <v>50</v>
       </c>
       <c r="G32" s="18"/>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="37"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="53"/>
     </row>
     <row r="33" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17" t="s">
         <v>41</v>
@@ -9825,18 +10014,18 @@
         <v>51</v>
       </c>
       <c r="G33" s="18"/>
-      <c r="H33" s="36" t="s">
+      <c r="H33" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="37"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="53"/>
     </row>
     <row r="34" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17" t="s">
         <v>42</v>
@@ -9845,18 +10034,18 @@
         <v>52</v>
       </c>
       <c r="G34" s="18"/>
-      <c r="H34" s="36" t="s">
+      <c r="H34" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="37"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="53"/>
     </row>
     <row r="35" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
         <v>41</v>
@@ -9865,18 +10054,18 @@
         <v>53</v>
       </c>
       <c r="G35" s="18"/>
-      <c r="H35" s="36" t="s">
+      <c r="H35" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="37"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="53"/>
     </row>
     <row r="36" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A36" s="72" t="s">
+      <c r="A36" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17" t="s">
         <v>41</v>
@@ -9885,18 +10074,18 @@
         <v>54</v>
       </c>
       <c r="G36" s="18"/>
-      <c r="H36" s="36" t="s">
+      <c r="H36" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="37"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="53"/>
     </row>
     <row r="37" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
         <v>43</v>
@@ -9905,229 +10094,229 @@
         <v>55</v>
       </c>
       <c r="G37" s="18"/>
-      <c r="H37" s="36" t="s">
+      <c r="H37" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="37"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="53"/>
     </row>
     <row r="38" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A38" s="72" t="s">
+      <c r="A38" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="84"/>
-      <c r="C38" s="85"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="91"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="83"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H38" s="36" t="s">
+      <c r="H38" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="I38" s="86"/>
-      <c r="J38" s="87"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="93"/>
     </row>
     <row r="39" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A39" s="72" t="s">
+      <c r="A39" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="84"/>
-      <c r="C39" s="85"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="83"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H39" s="36" t="s">
+      <c r="H39" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I39" s="86"/>
-      <c r="J39" s="87"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="93"/>
     </row>
     <row r="40" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A40" s="72" t="s">
+      <c r="A40" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="85"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="91"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="83"/>
+      <c r="F40" s="22"/>
       <c r="G40" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="36" t="s">
+      <c r="H40" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="I40" s="86"/>
-      <c r="J40" s="87"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="93"/>
     </row>
     <row r="41" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A41" s="74"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="40"/>
+      <c r="A41" s="94"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="30" t="s">
+      <c r="H41" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="I41" s="31"/>
-      <c r="J41" s="32"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="69"/>
     </row>
     <row r="42" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="76" t="s">
+      <c r="B42" s="64"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="35"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="71"/>
     </row>
     <row r="43" spans="1:10" ht="21" customHeight="1">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="37"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="53"/>
     </row>
     <row r="44" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A44" s="77" t="e" vm="2">
+      <c r="A44" s="97" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="79"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="99"/>
     </row>
     <row r="45" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A45" s="44"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="80"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="100"/>
     </row>
     <row r="46" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A46" s="44"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="80"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="100"/>
     </row>
     <row r="47" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A47" s="44"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="80"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="100"/>
     </row>
     <row r="48" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A48" s="44"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="80"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="100"/>
     </row>
     <row r="49" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A49" s="44"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="80"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="100"/>
     </row>
     <row r="50" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A50" s="44"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="80"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="100"/>
     </row>
     <row r="51" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A51" s="75" t="s">
+      <c r="A51" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="37"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="53"/>
     </row>
     <row r="52" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A52" s="75" t="s">
+      <c r="A52" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="36" t="s">
+      <c r="B52" s="27"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="24"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
       <c r="I52" s="15" t="s">
         <v>26</v>
       </c>
@@ -10136,11 +10325,11 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A53" s="75" t="s">
+      <c r="A53" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="28"/>
       <c r="D53" s="15" t="s">
         <v>28</v>
       </c>
@@ -10153,18 +10342,18 @@
       <c r="G53" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H53" s="81" t="s">
+      <c r="H53" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="I53" s="23"/>
-      <c r="J53" s="37"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="53"/>
     </row>
     <row r="54" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A54" s="72" t="s">
+      <c r="A54" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="24"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="28"/>
       <c r="D54" s="17"/>
       <c r="E54" s="17" t="s">
         <v>71</v>
@@ -10173,263 +10362,263 @@
       <c r="G54" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H54" s="36" t="s">
+      <c r="H54" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="I54" s="23"/>
-      <c r="J54" s="37"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="53"/>
     </row>
     <row r="55" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A55" s="72"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="24"/>
+      <c r="A55" s="89"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="18"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="37"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="53"/>
     </row>
     <row r="56" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A56" s="72"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="24"/>
+      <c r="A56" s="89"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="28"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="18"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="37"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="53"/>
     </row>
     <row r="57" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A57" s="72"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="24"/>
+      <c r="A57" s="89"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="28"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
       <c r="G57" s="18"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="37"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="53"/>
     </row>
     <row r="58" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A58" s="72"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
+      <c r="A58" s="89"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="28"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
       <c r="G58" s="18"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="37"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="53"/>
     </row>
     <row r="59" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A59" s="72"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
+      <c r="A59" s="89"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="28"/>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
       <c r="G59" s="18"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="37"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="53"/>
     </row>
     <row r="60" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A60" s="72"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="85"/>
+      <c r="A60" s="89"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="91"/>
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
-      <c r="F60" s="83"/>
+      <c r="F60" s="22"/>
       <c r="G60" s="21"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="86"/>
-      <c r="J60" s="87"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="92"/>
+      <c r="J60" s="93"/>
     </row>
     <row r="61" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A61" s="72"/>
-      <c r="B61" s="84"/>
-      <c r="C61" s="85"/>
+      <c r="A61" s="89"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="91"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
-      <c r="F61" s="83"/>
+      <c r="F61" s="22"/>
       <c r="G61" s="21"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="86"/>
-      <c r="J61" s="87"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="92"/>
+      <c r="J61" s="93"/>
     </row>
     <row r="62" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A62" s="72"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="85"/>
+      <c r="A62" s="89"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="91"/>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
-      <c r="F62" s="83"/>
+      <c r="F62" s="22"/>
       <c r="G62" s="21"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="86"/>
-      <c r="J62" s="87"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="92"/>
+      <c r="J62" s="93"/>
     </row>
     <row r="63" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A63" s="74"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="40"/>
+      <c r="A63" s="94"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="56"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="32"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="69"/>
     </row>
     <row r="64" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A64" s="73" t="s">
+      <c r="A64" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="34"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="76" t="s">
+      <c r="B64" s="64"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="35"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="71"/>
     </row>
     <row r="65" spans="1:10" ht="21" customHeight="1">
-      <c r="A65" s="75" t="s">
+      <c r="A65" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="37"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="53"/>
     </row>
     <row r="66" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A66" s="77" t="e" vm="3">
+      <c r="A66" s="97" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="B66" s="78"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="78"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="78"/>
-      <c r="H66" s="78"/>
-      <c r="I66" s="78"/>
-      <c r="J66" s="79"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="98"/>
+      <c r="G66" s="98"/>
+      <c r="H66" s="98"/>
+      <c r="I66" s="98"/>
+      <c r="J66" s="99"/>
     </row>
     <row r="67" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A67" s="44"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="80"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="100"/>
     </row>
     <row r="68" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A68" s="44"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="80"/>
+      <c r="A68" s="60"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="100"/>
     </row>
     <row r="69" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A69" s="44"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="80"/>
+      <c r="A69" s="60"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="100"/>
     </row>
     <row r="70" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A70" s="44"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="80"/>
+      <c r="A70" s="60"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="100"/>
     </row>
     <row r="71" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A71" s="44"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="80"/>
+      <c r="A71" s="60"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="100"/>
     </row>
     <row r="72" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A72" s="44"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="80"/>
+      <c r="A72" s="60"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="100"/>
     </row>
     <row r="73" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A73" s="75" t="s">
+      <c r="A73" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="37"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="53"/>
     </row>
     <row r="74" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A74" s="75" t="s">
+      <c r="A74" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="36" t="s">
+      <c r="B74" s="27"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="24"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="28"/>
       <c r="I74" s="15" t="s">
         <v>26</v>
       </c>
@@ -10438,11 +10627,11 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A75" s="75" t="s">
+      <c r="A75" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="24"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="28"/>
       <c r="D75" s="15" t="s">
         <v>28</v>
       </c>
@@ -10455,18 +10644,18 @@
       <c r="G75" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H75" s="81" t="s">
+      <c r="H75" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="I75" s="23"/>
-      <c r="J75" s="37"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="53"/>
     </row>
     <row r="76" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A76" s="72" t="s">
+      <c r="A76" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="24"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="28"/>
       <c r="D76" s="17"/>
       <c r="E76" s="17" t="s">
         <v>71</v>
@@ -10475,119 +10664,119 @@
       <c r="G76" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H76" s="36" t="s">
+      <c r="H76" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="I76" s="23"/>
-      <c r="J76" s="37"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="53"/>
     </row>
     <row r="77" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A77" s="72"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="24"/>
+      <c r="A77" s="89"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="28"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
       <c r="G77" s="18"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="37"/>
+      <c r="H77" s="52"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="53"/>
     </row>
     <row r="78" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A78" s="72"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="24"/>
+      <c r="A78" s="89"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="28"/>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="18"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="37"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="53"/>
     </row>
     <row r="79" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A79" s="72"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="24"/>
+      <c r="A79" s="89"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="28"/>
       <c r="D79" s="17"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="18"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="37"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="53"/>
     </row>
     <row r="80" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A80" s="72"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="24"/>
+      <c r="A80" s="89"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="28"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="18"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="37"/>
+      <c r="H80" s="52"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="53"/>
     </row>
     <row r="81" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A81" s="72"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="24"/>
+      <c r="A81" s="89"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="28"/>
       <c r="D81" s="17"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="18"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="37"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="53"/>
     </row>
     <row r="82" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A82" s="72"/>
-      <c r="B82" s="84"/>
-      <c r="C82" s="85"/>
+      <c r="A82" s="89"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="91"/>
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
-      <c r="F82" s="83"/>
+      <c r="F82" s="22"/>
       <c r="G82" s="21"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="86"/>
-      <c r="J82" s="87"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="92"/>
+      <c r="J82" s="93"/>
     </row>
     <row r="83" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A83" s="72"/>
-      <c r="B83" s="84"/>
-      <c r="C83" s="85"/>
+      <c r="A83" s="89"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="91"/>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
-      <c r="F83" s="83"/>
+      <c r="F83" s="22"/>
       <c r="G83" s="21"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="86"/>
-      <c r="J83" s="87"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="92"/>
+      <c r="J83" s="93"/>
     </row>
     <row r="84" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A84" s="72"/>
-      <c r="B84" s="84"/>
-      <c r="C84" s="85"/>
+      <c r="A84" s="89"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="91"/>
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
-      <c r="F84" s="83"/>
+      <c r="F84" s="22"/>
       <c r="G84" s="21"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="86"/>
-      <c r="J84" s="87"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="92"/>
+      <c r="J84" s="93"/>
     </row>
     <row r="85" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A85" s="74"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="40"/>
+      <c r="A85" s="94"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="56"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" s="20"/>
       <c r="G85" s="20"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="32"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="69"/>
     </row>
     <row r="86" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="87" spans="1:10" ht="12.75" customHeight="1"/>
@@ -11524,49 +11713,55 @@
     <row r="1018" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J9"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G12:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C11"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="F17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="A16:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="D17:E19"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H53:J53"/>
     <mergeCell ref="A65:J65"/>
     <mergeCell ref="A66:J72"/>
     <mergeCell ref="A73:J73"/>
@@ -11591,55 +11786,49 @@
     <mergeCell ref="H61:J61"/>
     <mergeCell ref="A56:C56"/>
     <mergeCell ref="H56:J56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="F17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="A16:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="D17:E19"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G12:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C11"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F13"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/プロジェクト型演習_成果物(登録).xlsx
+++ b/プロジェクト型演習_成果物(登録).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B251B030-93A6-4905-A926-81D2D14D5218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B250163-20D5-418B-848A-CD385084A46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1668,12 +1668,105 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1683,105 +1776,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1794,6 +1794,138 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1801,144 +1933,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2786,15 +2786,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:colOff>241300</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
+      <xdr:colOff>260350</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2809,8 +2809,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2781300" y="1060450"/>
-          <a:ext cx="2355850" cy="101600"/>
+          <a:off x="2482850" y="1054100"/>
+          <a:ext cx="3543300" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2904,10 +2904,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>entity</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2971,10 +2979,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>dao</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5028,7 +5044,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 255265"/>
+            <a:gd name="adj1" fmla="val 2674815"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
@@ -6516,19 +6532,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="35" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="36"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
@@ -6540,70 +6556,70 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="60"/>
+      <c r="A2" s="49"/>
       <c r="B2" s="30"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="43">
+      <c r="E2" s="69"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="72">
         <v>45631</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="47"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="60"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="48"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="65"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="49"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="66"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="70" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="71"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="56" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="41" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="27"/>
@@ -6611,15 +6627,15 @@
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
-      <c r="J6" s="53"/>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="56" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="41" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="27"/>
@@ -6627,15 +6643,15 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="53"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="56" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="41" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="27"/>
@@ -6643,17 +6659,17 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="53"/>
+      <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="60" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="28"/>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="43" t="s">
         <v>61</v>
       </c>
       <c r="E9" s="27"/>
@@ -6661,29 +6677,29 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="53"/>
+      <c r="J9" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="58"/>
+      <c r="B10" s="60" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="28"/>
-      <c r="D10" s="52"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="53"/>
+      <c r="J10" s="42"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="67"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="59"/>
+      <c r="B11" s="60" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="28"/>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="43" t="s">
         <v>108</v>
       </c>
       <c r="E11" s="27"/>
@@ -6691,15 +6707,15 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="53"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="56" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="41" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="27"/>
@@ -6707,21 +6723,21 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="53"/>
+      <c r="J12" s="42"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="69"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -7712,6 +7728,25 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
@@ -7720,25 +7755,6 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
@@ -7765,17 +7781,17 @@
       <c r="A1" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="35" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="67" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="74"/>
-      <c r="H1" s="36"/>
+      <c r="H1" s="55"/>
       <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
@@ -7787,49 +7803,49 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="60"/>
+      <c r="A2" s="49"/>
       <c r="B2" s="30"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="37"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="75"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="43">
+      <c r="H2" s="69"/>
+      <c r="I2" s="72">
         <v>45631</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="47"/>
+      <c r="K2" s="64"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="60"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="39"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="70"/>
       <c r="G3" s="76"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="48"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="49"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -9513,247 +9529,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
       <c r="D1" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77" t="s">
+      <c r="F1" s="121"/>
+      <c r="G1" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="122"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79" t="s">
+      <c r="F2" s="115"/>
+      <c r="G2" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="118"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="84"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="81" t="s">
+      <c r="A3" s="114"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="82"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="124"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="124"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="84"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="124"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="84"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="84"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="82"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="124"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="84"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="82"/>
+      <c r="A8" s="114"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="124"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="84"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="82"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="124"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" s="84"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79" t="s">
+      <c r="A10" s="114"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79" t="s">
+      <c r="F10" s="115"/>
+      <c r="G10" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="80"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="118"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="84"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79" t="s">
+      <c r="A11" s="114"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79" t="s">
+      <c r="F11" s="115"/>
+      <c r="G11" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="80"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="118"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="114" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="83" t="s">
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="125" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="79" t="s">
+      <c r="E12" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79" t="s">
+      <c r="F12" s="115"/>
+      <c r="G12" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="80"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
-      <c r="A13" s="84"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="80"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="118"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="79" t="s">
+      <c r="E14" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79" t="s">
+      <c r="F14" s="115"/>
+      <c r="G14" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="118"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="85"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
       <c r="D15" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="86" t="s">
+      <c r="E15" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86" t="s">
+      <c r="F15" s="117"/>
+      <c r="G15" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="87"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="119"/>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" thickTop="1">
       <c r="A16" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="35" t="s">
+      <c r="B16" s="94"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="122"/>
-      <c r="F16" s="35" t="s">
+      <c r="E16" s="103"/>
+      <c r="F16" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="122"/>
+      <c r="G16" s="103"/>
       <c r="H16" s="4" t="s">
         <v>7</v>
       </c>
@@ -9765,93 +9781,93 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1">
-      <c r="A17" s="116"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="37" t="s">
+      <c r="A17" s="96"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="103"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="43">
+      <c r="E17" s="83"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="72">
         <v>45631</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="47"/>
+      <c r="J17" s="64"/>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1">
-      <c r="A18" s="116"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="112"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="92"/>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A19" s="118"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="113"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="93"/>
     </row>
     <row r="20" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A20" s="101" t="s">
+      <c r="A20" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="70" t="s">
+      <c r="B20" s="101"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="123"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="106"/>
     </row>
     <row r="21" spans="1:10" ht="21" customHeight="1">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="124"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="108"/>
     </row>
     <row r="22" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A22" s="97" t="e" vm="1">
+      <c r="A22" s="109" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="99"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="111"/>
     </row>
     <row r="23" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A23" s="60"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
@@ -9860,10 +9876,10 @@
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
-      <c r="J23" s="100"/>
+      <c r="J23" s="112"/>
     </row>
     <row r="24" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A24" s="60"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -9872,10 +9888,10 @@
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
-      <c r="J24" s="100"/>
+      <c r="J24" s="112"/>
     </row>
     <row r="25" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A25" s="60"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -9884,10 +9900,10 @@
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
-      <c r="J25" s="100"/>
+      <c r="J25" s="112"/>
     </row>
     <row r="26" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A26" s="60"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
@@ -9896,10 +9912,10 @@
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
-      <c r="J26" s="100"/>
+      <c r="J26" s="112"/>
     </row>
     <row r="27" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A27" s="60"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -9908,10 +9924,10 @@
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
-      <c r="J27" s="100"/>
+      <c r="J27" s="112"/>
     </row>
     <row r="28" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A28" s="60"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
@@ -9920,10 +9936,10 @@
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
-      <c r="J28" s="100"/>
+      <c r="J28" s="112"/>
     </row>
     <row r="29" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="82" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="27"/>
@@ -9934,15 +9950,15 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="53"/>
+      <c r="J29" s="42"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="82" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="41" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="27"/>
@@ -9957,7 +9973,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A31" s="95" t="s">
+      <c r="A31" s="82" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="27"/>
@@ -9974,14 +9990,14 @@
       <c r="G31" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="96" t="s">
+      <c r="H31" s="113" t="s">
         <v>19</v>
       </c>
       <c r="I31" s="27"/>
-      <c r="J31" s="53"/>
+      <c r="J31" s="42"/>
     </row>
     <row r="32" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="77" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="27"/>
@@ -9994,14 +10010,14 @@
         <v>50</v>
       </c>
       <c r="G32" s="18"/>
-      <c r="H32" s="52" t="s">
+      <c r="H32" s="41" t="s">
         <v>56</v>
       </c>
       <c r="I32" s="27"/>
-      <c r="J32" s="53"/>
+      <c r="J32" s="42"/>
     </row>
     <row r="33" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="77" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="27"/>
@@ -10014,14 +10030,14 @@
         <v>51</v>
       </c>
       <c r="G33" s="18"/>
-      <c r="H33" s="52" t="s">
+      <c r="H33" s="41" t="s">
         <v>66</v>
       </c>
       <c r="I33" s="27"/>
-      <c r="J33" s="53"/>
+      <c r="J33" s="42"/>
     </row>
     <row r="34" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="77" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="27"/>
@@ -10034,14 +10050,14 @@
         <v>52</v>
       </c>
       <c r="G34" s="18"/>
-      <c r="H34" s="52" t="s">
+      <c r="H34" s="41" t="s">
         <v>64</v>
       </c>
       <c r="I34" s="27"/>
-      <c r="J34" s="53"/>
+      <c r="J34" s="42"/>
     </row>
     <row r="35" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="77" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="27"/>
@@ -10054,14 +10070,14 @@
         <v>53</v>
       </c>
       <c r="G35" s="18"/>
-      <c r="H35" s="52" t="s">
+      <c r="H35" s="41" t="s">
         <v>57</v>
       </c>
       <c r="I35" s="27"/>
-      <c r="J35" s="53"/>
+      <c r="J35" s="42"/>
     </row>
     <row r="36" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A36" s="89" t="s">
+      <c r="A36" s="77" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="27"/>
@@ -10074,14 +10090,14 @@
         <v>54</v>
       </c>
       <c r="G36" s="18"/>
-      <c r="H36" s="52" t="s">
+      <c r="H36" s="41" t="s">
         <v>65</v>
       </c>
       <c r="I36" s="27"/>
-      <c r="J36" s="53"/>
+      <c r="J36" s="42"/>
     </row>
     <row r="37" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A37" s="89" t="s">
+      <c r="A37" s="77" t="s">
         <v>49</v>
       </c>
       <c r="B37" s="27"/>
@@ -10094,18 +10110,18 @@
         <v>55</v>
       </c>
       <c r="G37" s="18"/>
-      <c r="H37" s="52" t="s">
+      <c r="H37" s="41" t="s">
         <v>58</v>
       </c>
       <c r="I37" s="27"/>
-      <c r="J37" s="53"/>
+      <c r="J37" s="42"/>
     </row>
     <row r="38" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="90"/>
-      <c r="C38" s="91"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21" t="s">
         <v>71</v>
@@ -10114,18 +10130,18 @@
       <c r="G38" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H38" s="52" t="s">
+      <c r="H38" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="I38" s="92"/>
-      <c r="J38" s="93"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="81"/>
     </row>
     <row r="39" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="90"/>
-      <c r="C39" s="91"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21" t="s">
         <v>71</v>
@@ -10134,18 +10150,18 @@
       <c r="G39" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H39" s="52" t="s">
+      <c r="H39" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="I39" s="92"/>
-      <c r="J39" s="93"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="81"/>
     </row>
     <row r="40" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A40" s="89" t="s">
+      <c r="A40" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="90"/>
-      <c r="C40" s="91"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="79"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21" t="s">
         <v>72</v>
@@ -10154,44 +10170,44 @@
       <c r="G40" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="52" t="s">
+      <c r="H40" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="I40" s="92"/>
-      <c r="J40" s="93"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="81"/>
     </row>
     <row r="41" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A41" s="94"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="56"/>
+      <c r="A41" s="104"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="68" t="s">
+      <c r="H41" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="I41" s="55"/>
-      <c r="J41" s="69"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="37"/>
     </row>
     <row r="42" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A42" s="101" t="s">
+      <c r="A42" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="102" t="s">
+      <c r="B42" s="39"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="71"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="40"/>
     </row>
     <row r="43" spans="1:10" ht="21" customHeight="1">
-      <c r="A43" s="95" t="s">
+      <c r="A43" s="82" t="s">
         <v>23</v>
       </c>
       <c r="B43" s="27"/>
@@ -10202,24 +10218,24 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="53"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A44" s="97" t="e" vm="2">
+      <c r="A44" s="109" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="99"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="111"/>
     </row>
     <row r="45" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A45" s="60"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
@@ -10228,10 +10244,10 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
-      <c r="J45" s="100"/>
+      <c r="J45" s="112"/>
     </row>
     <row r="46" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A46" s="60"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
@@ -10240,10 +10256,10 @@
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
       <c r="I46" s="30"/>
-      <c r="J46" s="100"/>
+      <c r="J46" s="112"/>
     </row>
     <row r="47" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A47" s="60"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
@@ -10252,10 +10268,10 @@
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
-      <c r="J47" s="100"/>
+      <c r="J47" s="112"/>
     </row>
     <row r="48" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A48" s="60"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
@@ -10264,10 +10280,10 @@
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
       <c r="I48" s="30"/>
-      <c r="J48" s="100"/>
+      <c r="J48" s="112"/>
     </row>
     <row r="49" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A49" s="60"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
@@ -10276,10 +10292,10 @@
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
       <c r="I49" s="30"/>
-      <c r="J49" s="100"/>
+      <c r="J49" s="112"/>
     </row>
     <row r="50" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A50" s="60"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="30"/>
@@ -10288,10 +10304,10 @@
       <c r="G50" s="30"/>
       <c r="H50" s="30"/>
       <c r="I50" s="30"/>
-      <c r="J50" s="100"/>
+      <c r="J50" s="112"/>
     </row>
     <row r="51" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A51" s="95" t="s">
+      <c r="A51" s="82" t="s">
         <v>24</v>
       </c>
       <c r="B51" s="27"/>
@@ -10302,15 +10318,15 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="53"/>
+      <c r="J51" s="42"/>
     </row>
     <row r="52" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A52" s="95" t="s">
+      <c r="A52" s="82" t="s">
         <v>25</v>
       </c>
       <c r="B52" s="27"/>
       <c r="C52" s="28"/>
-      <c r="D52" s="52" t="s">
+      <c r="D52" s="41" t="s">
         <v>76</v>
       </c>
       <c r="E52" s="27"/>
@@ -10325,7 +10341,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A53" s="95" t="s">
+      <c r="A53" s="82" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="27"/>
@@ -10342,14 +10358,14 @@
       <c r="G53" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H53" s="96" t="s">
+      <c r="H53" s="113" t="s">
         <v>19</v>
       </c>
       <c r="I53" s="27"/>
-      <c r="J53" s="53"/>
+      <c r="J53" s="42"/>
     </row>
     <row r="54" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A54" s="89" t="s">
+      <c r="A54" s="77" t="s">
         <v>69</v>
       </c>
       <c r="B54" s="27"/>
@@ -10362,138 +10378,138 @@
       <c r="G54" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H54" s="52" t="s">
+      <c r="H54" s="41" t="s">
         <v>80</v>
       </c>
       <c r="I54" s="27"/>
-      <c r="J54" s="53"/>
+      <c r="J54" s="42"/>
     </row>
     <row r="55" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A55" s="89"/>
+      <c r="A55" s="77"/>
       <c r="B55" s="27"/>
       <c r="C55" s="28"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="18"/>
-      <c r="H55" s="52"/>
+      <c r="H55" s="41"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="53"/>
+      <c r="J55" s="42"/>
     </row>
     <row r="56" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A56" s="89"/>
+      <c r="A56" s="77"/>
       <c r="B56" s="27"/>
       <c r="C56" s="28"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="18"/>
-      <c r="H56" s="52"/>
+      <c r="H56" s="41"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="53"/>
+      <c r="J56" s="42"/>
     </row>
     <row r="57" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A57" s="89"/>
+      <c r="A57" s="77"/>
       <c r="B57" s="27"/>
       <c r="C57" s="28"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
       <c r="G57" s="18"/>
-      <c r="H57" s="52"/>
+      <c r="H57" s="41"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="53"/>
+      <c r="J57" s="42"/>
     </row>
     <row r="58" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A58" s="89"/>
+      <c r="A58" s="77"/>
       <c r="B58" s="27"/>
       <c r="C58" s="28"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
       <c r="G58" s="18"/>
-      <c r="H58" s="52"/>
+      <c r="H58" s="41"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="53"/>
+      <c r="J58" s="42"/>
     </row>
     <row r="59" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A59" s="89"/>
+      <c r="A59" s="77"/>
       <c r="B59" s="27"/>
       <c r="C59" s="28"/>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
       <c r="G59" s="18"/>
-      <c r="H59" s="52"/>
+      <c r="H59" s="41"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="53"/>
+      <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A60" s="89"/>
-      <c r="B60" s="90"/>
-      <c r="C60" s="91"/>
+      <c r="A60" s="77"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="79"/>
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
       <c r="F60" s="22"/>
       <c r="G60" s="21"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="92"/>
-      <c r="J60" s="93"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="81"/>
     </row>
     <row r="61" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A61" s="89"/>
-      <c r="B61" s="90"/>
-      <c r="C61" s="91"/>
+      <c r="A61" s="77"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="79"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="22"/>
       <c r="G61" s="21"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="92"/>
-      <c r="J61" s="93"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="80"/>
+      <c r="J61" s="81"/>
     </row>
     <row r="62" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A62" s="89"/>
-      <c r="B62" s="90"/>
-      <c r="C62" s="91"/>
+      <c r="A62" s="77"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="79"/>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
       <c r="F62" s="22"/>
       <c r="G62" s="21"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="92"/>
-      <c r="J62" s="93"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="80"/>
+      <c r="J62" s="81"/>
     </row>
     <row r="63" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A63" s="94"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="56"/>
+      <c r="A63" s="104"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="45"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="69"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="37"/>
     </row>
     <row r="64" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A64" s="101" t="s">
+      <c r="A64" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="64"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="102" t="s">
+      <c r="B64" s="39"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="64"/>
-      <c r="J64" s="71"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="40"/>
     </row>
     <row r="65" spans="1:10" ht="21" customHeight="1">
-      <c r="A65" s="95" t="s">
+      <c r="A65" s="82" t="s">
         <v>23</v>
       </c>
       <c r="B65" s="27"/>
@@ -10504,24 +10520,24 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="53"/>
+      <c r="J65" s="42"/>
     </row>
     <row r="66" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A66" s="97" t="e" vm="3">
+      <c r="A66" s="109" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="B66" s="98"/>
-      <c r="C66" s="98"/>
-      <c r="D66" s="98"/>
-      <c r="E66" s="98"/>
-      <c r="F66" s="98"/>
-      <c r="G66" s="98"/>
-      <c r="H66" s="98"/>
-      <c r="I66" s="98"/>
-      <c r="J66" s="99"/>
+      <c r="B66" s="110"/>
+      <c r="C66" s="110"/>
+      <c r="D66" s="110"/>
+      <c r="E66" s="110"/>
+      <c r="F66" s="110"/>
+      <c r="G66" s="110"/>
+      <c r="H66" s="110"/>
+      <c r="I66" s="110"/>
+      <c r="J66" s="111"/>
     </row>
     <row r="67" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A67" s="60"/>
+      <c r="A67" s="49"/>
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
@@ -10530,10 +10546,10 @@
       <c r="G67" s="30"/>
       <c r="H67" s="30"/>
       <c r="I67" s="30"/>
-      <c r="J67" s="100"/>
+      <c r="J67" s="112"/>
     </row>
     <row r="68" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A68" s="60"/>
+      <c r="A68" s="49"/>
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
@@ -10542,10 +10558,10 @@
       <c r="G68" s="30"/>
       <c r="H68" s="30"/>
       <c r="I68" s="30"/>
-      <c r="J68" s="100"/>
+      <c r="J68" s="112"/>
     </row>
     <row r="69" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A69" s="60"/>
+      <c r="A69" s="49"/>
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
       <c r="D69" s="30"/>
@@ -10554,10 +10570,10 @@
       <c r="G69" s="30"/>
       <c r="H69" s="30"/>
       <c r="I69" s="30"/>
-      <c r="J69" s="100"/>
+      <c r="J69" s="112"/>
     </row>
     <row r="70" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A70" s="60"/>
+      <c r="A70" s="49"/>
       <c r="B70" s="30"/>
       <c r="C70" s="30"/>
       <c r="D70" s="30"/>
@@ -10566,10 +10582,10 @@
       <c r="G70" s="30"/>
       <c r="H70" s="30"/>
       <c r="I70" s="30"/>
-      <c r="J70" s="100"/>
+      <c r="J70" s="112"/>
     </row>
     <row r="71" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A71" s="60"/>
+      <c r="A71" s="49"/>
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
       <c r="D71" s="30"/>
@@ -10578,10 +10594,10 @@
       <c r="G71" s="30"/>
       <c r="H71" s="30"/>
       <c r="I71" s="30"/>
-      <c r="J71" s="100"/>
+      <c r="J71" s="112"/>
     </row>
     <row r="72" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A72" s="60"/>
+      <c r="A72" s="49"/>
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
       <c r="D72" s="30"/>
@@ -10590,10 +10606,10 @@
       <c r="G72" s="30"/>
       <c r="H72" s="30"/>
       <c r="I72" s="30"/>
-      <c r="J72" s="100"/>
+      <c r="J72" s="112"/>
     </row>
     <row r="73" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A73" s="95" t="s">
+      <c r="A73" s="82" t="s">
         <v>24</v>
       </c>
       <c r="B73" s="27"/>
@@ -10604,15 +10620,15 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="53"/>
+      <c r="J73" s="42"/>
     </row>
     <row r="74" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A74" s="95" t="s">
+      <c r="A74" s="82" t="s">
         <v>25</v>
       </c>
       <c r="B74" s="27"/>
       <c r="C74" s="28"/>
-      <c r="D74" s="52" t="s">
+      <c r="D74" s="41" t="s">
         <v>77</v>
       </c>
       <c r="E74" s="27"/>
@@ -10627,7 +10643,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A75" s="95" t="s">
+      <c r="A75" s="82" t="s">
         <v>27</v>
       </c>
       <c r="B75" s="27"/>
@@ -10644,14 +10660,14 @@
       <c r="G75" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H75" s="96" t="s">
+      <c r="H75" s="113" t="s">
         <v>19</v>
       </c>
       <c r="I75" s="27"/>
-      <c r="J75" s="53"/>
+      <c r="J75" s="42"/>
     </row>
     <row r="76" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A76" s="89" t="s">
+      <c r="A76" s="77" t="s">
         <v>78</v>
       </c>
       <c r="B76" s="27"/>
@@ -10664,119 +10680,119 @@
       <c r="G76" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H76" s="52" t="s">
+      <c r="H76" s="41" t="s">
         <v>79</v>
       </c>
       <c r="I76" s="27"/>
-      <c r="J76" s="53"/>
+      <c r="J76" s="42"/>
     </row>
     <row r="77" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A77" s="89"/>
+      <c r="A77" s="77"/>
       <c r="B77" s="27"/>
       <c r="C77" s="28"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
       <c r="G77" s="18"/>
-      <c r="H77" s="52"/>
+      <c r="H77" s="41"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="53"/>
+      <c r="J77" s="42"/>
     </row>
     <row r="78" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A78" s="89"/>
+      <c r="A78" s="77"/>
       <c r="B78" s="27"/>
       <c r="C78" s="28"/>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="18"/>
-      <c r="H78" s="52"/>
+      <c r="H78" s="41"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="53"/>
+      <c r="J78" s="42"/>
     </row>
     <row r="79" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A79" s="89"/>
+      <c r="A79" s="77"/>
       <c r="B79" s="27"/>
       <c r="C79" s="28"/>
       <c r="D79" s="17"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="18"/>
-      <c r="H79" s="52"/>
+      <c r="H79" s="41"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="53"/>
+      <c r="J79" s="42"/>
     </row>
     <row r="80" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A80" s="89"/>
+      <c r="A80" s="77"/>
       <c r="B80" s="27"/>
       <c r="C80" s="28"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="18"/>
-      <c r="H80" s="52"/>
+      <c r="H80" s="41"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="53"/>
+      <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A81" s="89"/>
+      <c r="A81" s="77"/>
       <c r="B81" s="27"/>
       <c r="C81" s="28"/>
       <c r="D81" s="17"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="18"/>
-      <c r="H81" s="52"/>
+      <c r="H81" s="41"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="53"/>
+      <c r="J81" s="42"/>
     </row>
     <row r="82" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A82" s="89"/>
-      <c r="B82" s="90"/>
-      <c r="C82" s="91"/>
+      <c r="A82" s="77"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="79"/>
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
       <c r="F82" s="22"/>
       <c r="G82" s="21"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="92"/>
-      <c r="J82" s="93"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="80"/>
+      <c r="J82" s="81"/>
     </row>
     <row r="83" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A83" s="89"/>
-      <c r="B83" s="90"/>
-      <c r="C83" s="91"/>
+      <c r="A83" s="77"/>
+      <c r="B83" s="78"/>
+      <c r="C83" s="79"/>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
       <c r="F83" s="22"/>
       <c r="G83" s="21"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="92"/>
-      <c r="J83" s="93"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="80"/>
+      <c r="J83" s="81"/>
     </row>
     <row r="84" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A84" s="89"/>
-      <c r="B84" s="90"/>
-      <c r="C84" s="91"/>
+      <c r="A84" s="77"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="79"/>
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
       <c r="F84" s="22"/>
       <c r="G84" s="21"/>
-      <c r="H84" s="52"/>
-      <c r="I84" s="92"/>
-      <c r="J84" s="93"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="80"/>
+      <c r="J84" s="81"/>
     </row>
     <row r="85" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A85" s="94"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="56"/>
+      <c r="A85" s="104"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="45"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" s="20"/>
       <c r="G85" s="20"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="55"/>
-      <c r="J85" s="69"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="37"/>
     </row>
     <row r="86" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="87" spans="1:10" ht="12.75" customHeight="1"/>
@@ -11713,21 +11729,83 @@
     <row r="1018" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G12:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C11"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A66:J72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H53:J53"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="D52:H52"/>
     <mergeCell ref="F17:G19"/>
@@ -11752,83 +11830,21 @@
     <mergeCell ref="H31:J31"/>
     <mergeCell ref="H32:J32"/>
     <mergeCell ref="D17:E19"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A66:J72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G12:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C11"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J9"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/プロジェクト型演習_成果物(登録).xlsx
+++ b/プロジェクト型演習_成果物(登録).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B250163-20D5-418B-848A-CD385084A46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98D8D1F-3323-46A4-8817-4690F6F18D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1668,119 +1668,119 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1794,6 +1794,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1809,9 +1845,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1863,9 +1923,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1875,12 +1932,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1888,57 +1939,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1959,6 +1959,142 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>496186</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>132906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>26581</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>35440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{105437D0-98D4-8C86-E3FD-EE803DCB5FE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9622465" y="2365743"/>
+          <a:ext cx="4953000" cy="2348023"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -79295"/>
+            <a:gd name="adj2" fmla="val 5958"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>代替フロー追記例</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>代替フローには</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>基本フローと異なる流れが発生する可能性のある場合のパターンを記述するのがよい。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>例）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>・「登録時にタスク未入力項目がある場合、システムでデフォルト値を設定して登録を完了する」</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>・未入力が存在する場合、画面側で入力漏れがないかをチェックし、未入力の状態での登録は押下できないこととする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>など</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5351,10 +5487,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16" width="7.81640625" customWidth="1"/>
-    <col min="17" max="26" width="8.81640625" customWidth="1"/>
+    <col min="1" max="16" width="7.77734375" customWidth="1"/>
+    <col min="17" max="26" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
@@ -6520,31 +6656,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="5.08984375" customWidth="1"/>
-    <col min="4" max="10" width="16.81640625" customWidth="1"/>
-    <col min="11" max="26" width="8.81640625" customWidth="1"/>
+    <col min="1" max="3" width="5.109375" customWidth="1"/>
+    <col min="4" max="10" width="16.77734375" customWidth="1"/>
+    <col min="11" max="26" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="67" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="67" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
@@ -6556,70 +6692,70 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="49"/>
+      <c r="A2" s="60"/>
       <c r="B2" s="30"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="72">
+      <c r="E2" s="38"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="43">
         <v>45631</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="64"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="49"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="65"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="66"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="38" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="51" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="52" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="27"/>
@@ -6627,15 +6763,15 @@
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
-      <c r="J6" s="42"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="51" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="52" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="27"/>
@@ -6643,15 +6779,15 @@
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="42"/>
+      <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="51" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="52" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="27"/>
@@ -6659,17 +6795,17 @@
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="42"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="28"/>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="72" t="s">
         <v>61</v>
       </c>
       <c r="E9" s="27"/>
@@ -6677,29 +6813,29 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="42"/>
+      <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="60" t="s">
+      <c r="A10" s="66"/>
+      <c r="B10" s="50" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="28"/>
-      <c r="D10" s="41"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="42"/>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10" ht="64.5" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="50" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="28"/>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="72" t="s">
         <v>108</v>
       </c>
       <c r="E11" s="27"/>
@@ -6707,15 +6843,15 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="42"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="51" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="52" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="27"/>
@@ -6723,21 +6859,21 @@
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="42"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:10" ht="12.75" customHeight="1"/>
@@ -7728,17 +7864,14 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -7747,18 +7880,22 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7766,32 +7903,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="5.08984375" customWidth="1"/>
-    <col min="4" max="11" width="16.81640625" customWidth="1"/>
-    <col min="12" max="27" width="8.81640625" customWidth="1"/>
+    <col min="1" max="3" width="5.109375" customWidth="1"/>
+    <col min="4" max="11" width="16.77734375" customWidth="1"/>
+    <col min="12" max="27" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="67" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="67" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="35" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="74"/>
-      <c r="H1" s="55"/>
+      <c r="H1" s="36"/>
       <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
@@ -7803,49 +7940,49 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="49"/>
+      <c r="A2" s="60"/>
       <c r="B2" s="30"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="68"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="75"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="72">
+      <c r="H2" s="38"/>
+      <c r="I2" s="43">
         <v>45631</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="64"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="49"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="70"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="39"/>
       <c r="G3" s="76"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="65"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="66"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -8107,7 +8244,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" ht="12.5" customHeight="1">
+    <row r="25" spans="1:11" ht="12.45" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -9517,259 +9654,259 @@
   </sheetPr>
   <dimension ref="A1:J1018"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="5.08984375" customWidth="1"/>
-    <col min="4" max="10" width="16.81640625" customWidth="1"/>
-    <col min="11" max="26" width="8.81640625" customWidth="1"/>
+    <col min="1" max="3" width="5.109375" customWidth="1"/>
+    <col min="4" max="10" width="16.77734375" customWidth="1"/>
+    <col min="11" max="26" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
       <c r="D1" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121" t="s">
+      <c r="F1" s="84"/>
+      <c r="G1" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="122"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="85"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="115" t="s">
+      <c r="E2" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115" t="s">
+      <c r="F2" s="78"/>
+      <c r="G2" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="118"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="123" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="124"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="114"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="124"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="114"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="124"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="114"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="114"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="124"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="87"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="114"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="124"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="87"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="114"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="87"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" s="114"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115" t="s">
+      <c r="F10" s="78"/>
+      <c r="G10" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="118"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="81"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="114"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115" t="s">
+      <c r="A11" s="77"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115" t="s">
+      <c r="F11" s="78"/>
+      <c r="G11" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="118"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="81"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="125" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="115" t="s">
+      <c r="E12" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115" t="s">
+      <c r="F12" s="78"/>
+      <c r="G12" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="118"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
-      <c r="A13" s="114"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="118"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="81"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="115" t="s">
+      <c r="E14" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115" t="s">
+      <c r="F14" s="78"/>
+      <c r="G14" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="118"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="81"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="116"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="117" t="s">
+      <c r="E15" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117" t="s">
+      <c r="F15" s="80"/>
+      <c r="G15" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="119"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="82"/>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" thickTop="1">
       <c r="A16" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="67" t="s">
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="103"/>
-      <c r="F16" s="67" t="s">
+      <c r="E16" s="122"/>
+      <c r="F16" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="103"/>
+      <c r="G16" s="122"/>
       <c r="H16" s="4" t="s">
         <v>7</v>
       </c>
@@ -9781,93 +9918,93 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1">
-      <c r="A17" s="96"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="68" t="s">
+      <c r="A17" s="116"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="72">
+      <c r="E17" s="103"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="43">
         <v>45631</v>
       </c>
-      <c r="I17" s="61" t="s">
+      <c r="I17" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="64"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1">
-      <c r="A18" s="96"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="92"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="112"/>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A19" s="98"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="93"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="113"/>
     </row>
     <row r="20" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="38" t="s">
+      <c r="B20" s="120"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="106"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="123"/>
     </row>
     <row r="21" spans="1:10" ht="21" customHeight="1">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="108"/>
-    </row>
-    <row r="22" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A22" s="109" t="e" vm="1">
+      <c r="B21" s="124"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="125"/>
+    </row>
+    <row r="22" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A22" s="97" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="111"/>
-    </row>
-    <row r="23" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A23" s="49"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="99"/>
+    </row>
+    <row r="23" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A23" s="60"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
@@ -9876,10 +10013,10 @@
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
-      <c r="J23" s="112"/>
-    </row>
-    <row r="24" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A24" s="49"/>
+      <c r="J23" s="100"/>
+    </row>
+    <row r="24" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A24" s="60"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -9888,10 +10025,10 @@
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
-      <c r="J24" s="112"/>
-    </row>
-    <row r="25" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A25" s="49"/>
+      <c r="J24" s="100"/>
+    </row>
+    <row r="25" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A25" s="60"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -9900,10 +10037,10 @@
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
-      <c r="J25" s="112"/>
-    </row>
-    <row r="26" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A26" s="49"/>
+      <c r="J25" s="100"/>
+    </row>
+    <row r="26" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A26" s="60"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
@@ -9912,10 +10049,10 @@
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
-      <c r="J26" s="112"/>
-    </row>
-    <row r="27" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A27" s="49"/>
+      <c r="J26" s="100"/>
+    </row>
+    <row r="27" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A27" s="60"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -9924,10 +10061,10 @@
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
-      <c r="J27" s="112"/>
-    </row>
-    <row r="28" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A28" s="49"/>
+      <c r="J27" s="100"/>
+    </row>
+    <row r="28" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A28" s="60"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
@@ -9936,10 +10073,10 @@
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
-      <c r="J28" s="112"/>
+      <c r="J28" s="100"/>
     </row>
     <row r="29" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A29" s="82" t="s">
+      <c r="A29" s="95" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="27"/>
@@ -9950,15 +10087,15 @@
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="42"/>
+      <c r="J29" s="53"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="95" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="52" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="27"/>
@@ -9973,7 +10110,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="95" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="27"/>
@@ -9990,14 +10127,14 @@
       <c r="G31" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="113" t="s">
+      <c r="H31" s="96" t="s">
         <v>19</v>
       </c>
       <c r="I31" s="27"/>
-      <c r="J31" s="42"/>
+      <c r="J31" s="53"/>
     </row>
     <row r="32" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="89" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="27"/>
@@ -10010,14 +10147,14 @@
         <v>50</v>
       </c>
       <c r="G32" s="18"/>
-      <c r="H32" s="41" t="s">
+      <c r="H32" s="52" t="s">
         <v>56</v>
       </c>
       <c r="I32" s="27"/>
-      <c r="J32" s="42"/>
+      <c r="J32" s="53"/>
     </row>
     <row r="33" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="89" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="27"/>
@@ -10030,14 +10167,14 @@
         <v>51</v>
       </c>
       <c r="G33" s="18"/>
-      <c r="H33" s="41" t="s">
+      <c r="H33" s="52" t="s">
         <v>66</v>
       </c>
       <c r="I33" s="27"/>
-      <c r="J33" s="42"/>
+      <c r="J33" s="53"/>
     </row>
     <row r="34" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="89" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="27"/>
@@ -10050,14 +10187,14 @@
         <v>52</v>
       </c>
       <c r="G34" s="18"/>
-      <c r="H34" s="41" t="s">
+      <c r="H34" s="52" t="s">
         <v>64</v>
       </c>
       <c r="I34" s="27"/>
-      <c r="J34" s="42"/>
+      <c r="J34" s="53"/>
     </row>
     <row r="35" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="89" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="27"/>
@@ -10070,14 +10207,14 @@
         <v>53</v>
       </c>
       <c r="G35" s="18"/>
-      <c r="H35" s="41" t="s">
+      <c r="H35" s="52" t="s">
         <v>57</v>
       </c>
       <c r="I35" s="27"/>
-      <c r="J35" s="42"/>
+      <c r="J35" s="53"/>
     </row>
     <row r="36" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="89" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="27"/>
@@ -10090,14 +10227,14 @@
         <v>54</v>
       </c>
       <c r="G36" s="18"/>
-      <c r="H36" s="41" t="s">
+      <c r="H36" s="52" t="s">
         <v>65</v>
       </c>
       <c r="I36" s="27"/>
-      <c r="J36" s="42"/>
+      <c r="J36" s="53"/>
     </row>
     <row r="37" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="89" t="s">
         <v>49</v>
       </c>
       <c r="B37" s="27"/>
@@ -10110,18 +10247,18 @@
         <v>55</v>
       </c>
       <c r="G37" s="18"/>
-      <c r="H37" s="41" t="s">
+      <c r="H37" s="52" t="s">
         <v>58</v>
       </c>
       <c r="I37" s="27"/>
-      <c r="J37" s="42"/>
+      <c r="J37" s="53"/>
     </row>
     <row r="38" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="78"/>
-      <c r="C38" s="79"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="91"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21" t="s">
         <v>71</v>
@@ -10130,18 +10267,18 @@
       <c r="G38" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H38" s="41" t="s">
+      <c r="H38" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="I38" s="80"/>
-      <c r="J38" s="81"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="93"/>
     </row>
     <row r="39" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="78"/>
-      <c r="C39" s="79"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21" t="s">
         <v>71</v>
@@ -10150,18 +10287,18 @@
       <c r="G39" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H39" s="41" t="s">
+      <c r="H39" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I39" s="80"/>
-      <c r="J39" s="81"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="93"/>
     </row>
     <row r="40" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="79"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="91"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21" t="s">
         <v>72</v>
@@ -10170,44 +10307,44 @@
       <c r="G40" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="41" t="s">
+      <c r="H40" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="I40" s="80"/>
-      <c r="J40" s="81"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="93"/>
     </row>
     <row r="41" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A41" s="104"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="45"/>
+      <c r="A41" s="94"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="35" t="s">
+      <c r="H41" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="I41" s="36"/>
-      <c r="J41" s="37"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="69"/>
     </row>
     <row r="42" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A42" s="100" t="s">
+      <c r="A42" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="105" t="s">
+      <c r="B42" s="64"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="40"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="71"/>
     </row>
     <row r="43" spans="1:10" ht="21" customHeight="1">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="95" t="s">
         <v>23</v>
       </c>
       <c r="B43" s="27"/>
@@ -10218,24 +10355,24 @@
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="42"/>
-    </row>
-    <row r="44" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A44" s="109" t="e" vm="2">
+      <c r="J43" s="53"/>
+    </row>
+    <row r="44" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A44" s="97" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="B44" s="110"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="111"/>
-    </row>
-    <row r="45" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A45" s="49"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="99"/>
+    </row>
+    <row r="45" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A45" s="60"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
@@ -10244,10 +10381,10 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
-      <c r="J45" s="112"/>
-    </row>
-    <row r="46" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A46" s="49"/>
+      <c r="J45" s="100"/>
+    </row>
+    <row r="46" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A46" s="60"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
@@ -10256,10 +10393,10 @@
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
       <c r="I46" s="30"/>
-      <c r="J46" s="112"/>
-    </row>
-    <row r="47" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A47" s="49"/>
+      <c r="J46" s="100"/>
+    </row>
+    <row r="47" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A47" s="60"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
@@ -10268,10 +10405,10 @@
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
-      <c r="J47" s="112"/>
-    </row>
-    <row r="48" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A48" s="49"/>
+      <c r="J47" s="100"/>
+    </row>
+    <row r="48" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A48" s="60"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
@@ -10280,10 +10417,10 @@
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
       <c r="I48" s="30"/>
-      <c r="J48" s="112"/>
-    </row>
-    <row r="49" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A49" s="49"/>
+      <c r="J48" s="100"/>
+    </row>
+    <row r="49" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A49" s="60"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
@@ -10292,10 +10429,10 @@
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
       <c r="I49" s="30"/>
-      <c r="J49" s="112"/>
-    </row>
-    <row r="50" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A50" s="49"/>
+      <c r="J49" s="100"/>
+    </row>
+    <row r="50" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A50" s="60"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="30"/>
@@ -10304,10 +10441,10 @@
       <c r="G50" s="30"/>
       <c r="H50" s="30"/>
       <c r="I50" s="30"/>
-      <c r="J50" s="112"/>
+      <c r="J50" s="100"/>
     </row>
     <row r="51" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A51" s="82" t="s">
+      <c r="A51" s="95" t="s">
         <v>24</v>
       </c>
       <c r="B51" s="27"/>
@@ -10318,15 +10455,15 @@
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="42"/>
+      <c r="J51" s="53"/>
     </row>
     <row r="52" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A52" s="82" t="s">
+      <c r="A52" s="95" t="s">
         <v>25</v>
       </c>
       <c r="B52" s="27"/>
       <c r="C52" s="28"/>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="52" t="s">
         <v>76</v>
       </c>
       <c r="E52" s="27"/>
@@ -10341,7 +10478,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A53" s="82" t="s">
+      <c r="A53" s="95" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="27"/>
@@ -10358,14 +10495,14 @@
       <c r="G53" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H53" s="113" t="s">
+      <c r="H53" s="96" t="s">
         <v>19</v>
       </c>
       <c r="I53" s="27"/>
-      <c r="J53" s="42"/>
+      <c r="J53" s="53"/>
     </row>
     <row r="54" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A54" s="77" t="s">
+      <c r="A54" s="89" t="s">
         <v>69</v>
       </c>
       <c r="B54" s="27"/>
@@ -10378,138 +10515,138 @@
       <c r="G54" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H54" s="41" t="s">
+      <c r="H54" s="52" t="s">
         <v>80</v>
       </c>
       <c r="I54" s="27"/>
-      <c r="J54" s="42"/>
+      <c r="J54" s="53"/>
     </row>
     <row r="55" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A55" s="77"/>
+      <c r="A55" s="89"/>
       <c r="B55" s="27"/>
       <c r="C55" s="28"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="18"/>
-      <c r="H55" s="41"/>
+      <c r="H55" s="52"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="42"/>
+      <c r="J55" s="53"/>
     </row>
     <row r="56" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A56" s="77"/>
+      <c r="A56" s="89"/>
       <c r="B56" s="27"/>
       <c r="C56" s="28"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="18"/>
-      <c r="H56" s="41"/>
+      <c r="H56" s="52"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="42"/>
+      <c r="J56" s="53"/>
     </row>
     <row r="57" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A57" s="77"/>
+      <c r="A57" s="89"/>
       <c r="B57" s="27"/>
       <c r="C57" s="28"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
       <c r="G57" s="18"/>
-      <c r="H57" s="41"/>
+      <c r="H57" s="52"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="42"/>
+      <c r="J57" s="53"/>
     </row>
     <row r="58" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A58" s="77"/>
+      <c r="A58" s="89"/>
       <c r="B58" s="27"/>
       <c r="C58" s="28"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
       <c r="G58" s="18"/>
-      <c r="H58" s="41"/>
+      <c r="H58" s="52"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="42"/>
+      <c r="J58" s="53"/>
     </row>
     <row r="59" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A59" s="77"/>
+      <c r="A59" s="89"/>
       <c r="B59" s="27"/>
       <c r="C59" s="28"/>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
       <c r="G59" s="18"/>
-      <c r="H59" s="41"/>
+      <c r="H59" s="52"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="42"/>
+      <c r="J59" s="53"/>
     </row>
     <row r="60" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A60" s="77"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="79"/>
+      <c r="A60" s="89"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="91"/>
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
       <c r="F60" s="22"/>
       <c r="G60" s="21"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="81"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="92"/>
+      <c r="J60" s="93"/>
     </row>
     <row r="61" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A61" s="77"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="79"/>
+      <c r="A61" s="89"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="91"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="22"/>
       <c r="G61" s="21"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="81"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="92"/>
+      <c r="J61" s="93"/>
     </row>
     <row r="62" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A62" s="77"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="79"/>
+      <c r="A62" s="89"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="91"/>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
       <c r="F62" s="22"/>
       <c r="G62" s="21"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="80"/>
-      <c r="J62" s="81"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="92"/>
+      <c r="J62" s="93"/>
     </row>
     <row r="63" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A63" s="104"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="45"/>
+      <c r="A63" s="94"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="56"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="37"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="69"/>
     </row>
     <row r="64" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A64" s="100" t="s">
+      <c r="A64" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="39"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="105" t="s">
+      <c r="B64" s="64"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="40"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="71"/>
     </row>
     <row r="65" spans="1:10" ht="21" customHeight="1">
-      <c r="A65" s="82" t="s">
+      <c r="A65" s="95" t="s">
         <v>23</v>
       </c>
       <c r="B65" s="27"/>
@@ -10520,24 +10657,24 @@
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
-      <c r="J65" s="42"/>
-    </row>
-    <row r="66" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A66" s="109" t="e" vm="3">
+      <c r="J65" s="53"/>
+    </row>
+    <row r="66" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A66" s="97" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="B66" s="110"/>
-      <c r="C66" s="110"/>
-      <c r="D66" s="110"/>
-      <c r="E66" s="110"/>
-      <c r="F66" s="110"/>
-      <c r="G66" s="110"/>
-      <c r="H66" s="110"/>
-      <c r="I66" s="110"/>
-      <c r="J66" s="111"/>
-    </row>
-    <row r="67" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A67" s="49"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="98"/>
+      <c r="G66" s="98"/>
+      <c r="H66" s="98"/>
+      <c r="I66" s="98"/>
+      <c r="J66" s="99"/>
+    </row>
+    <row r="67" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A67" s="60"/>
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
@@ -10546,10 +10683,10 @@
       <c r="G67" s="30"/>
       <c r="H67" s="30"/>
       <c r="I67" s="30"/>
-      <c r="J67" s="112"/>
-    </row>
-    <row r="68" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A68" s="49"/>
+      <c r="J67" s="100"/>
+    </row>
+    <row r="68" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A68" s="60"/>
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
@@ -10558,10 +10695,10 @@
       <c r="G68" s="30"/>
       <c r="H68" s="30"/>
       <c r="I68" s="30"/>
-      <c r="J68" s="112"/>
-    </row>
-    <row r="69" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A69" s="49"/>
+      <c r="J68" s="100"/>
+    </row>
+    <row r="69" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A69" s="60"/>
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
       <c r="D69" s="30"/>
@@ -10570,10 +10707,10 @@
       <c r="G69" s="30"/>
       <c r="H69" s="30"/>
       <c r="I69" s="30"/>
-      <c r="J69" s="112"/>
-    </row>
-    <row r="70" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A70" s="49"/>
+      <c r="J69" s="100"/>
+    </row>
+    <row r="70" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A70" s="60"/>
       <c r="B70" s="30"/>
       <c r="C70" s="30"/>
       <c r="D70" s="30"/>
@@ -10582,10 +10719,10 @@
       <c r="G70" s="30"/>
       <c r="H70" s="30"/>
       <c r="I70" s="30"/>
-      <c r="J70" s="112"/>
-    </row>
-    <row r="71" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A71" s="49"/>
+      <c r="J70" s="100"/>
+    </row>
+    <row r="71" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A71" s="60"/>
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
       <c r="D71" s="30"/>
@@ -10594,10 +10731,10 @@
       <c r="G71" s="30"/>
       <c r="H71" s="30"/>
       <c r="I71" s="30"/>
-      <c r="J71" s="112"/>
-    </row>
-    <row r="72" spans="1:10" ht="35.5" customHeight="1">
-      <c r="A72" s="49"/>
+      <c r="J71" s="100"/>
+    </row>
+    <row r="72" spans="1:10" ht="35.549999999999997" customHeight="1">
+      <c r="A72" s="60"/>
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
       <c r="D72" s="30"/>
@@ -10606,10 +10743,10 @@
       <c r="G72" s="30"/>
       <c r="H72" s="30"/>
       <c r="I72" s="30"/>
-      <c r="J72" s="112"/>
+      <c r="J72" s="100"/>
     </row>
     <row r="73" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A73" s="82" t="s">
+      <c r="A73" s="95" t="s">
         <v>24</v>
       </c>
       <c r="B73" s="27"/>
@@ -10620,15 +10757,15 @@
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
-      <c r="J73" s="42"/>
+      <c r="J73" s="53"/>
     </row>
     <row r="74" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A74" s="82" t="s">
+      <c r="A74" s="95" t="s">
         <v>25</v>
       </c>
       <c r="B74" s="27"/>
       <c r="C74" s="28"/>
-      <c r="D74" s="41" t="s">
+      <c r="D74" s="52" t="s">
         <v>77</v>
       </c>
       <c r="E74" s="27"/>
@@ -10643,7 +10780,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A75" s="82" t="s">
+      <c r="A75" s="95" t="s">
         <v>27</v>
       </c>
       <c r="B75" s="27"/>
@@ -10660,14 +10797,14 @@
       <c r="G75" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H75" s="113" t="s">
+      <c r="H75" s="96" t="s">
         <v>19</v>
       </c>
       <c r="I75" s="27"/>
-      <c r="J75" s="42"/>
+      <c r="J75" s="53"/>
     </row>
     <row r="76" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A76" s="77" t="s">
+      <c r="A76" s="89" t="s">
         <v>78</v>
       </c>
       <c r="B76" s="27"/>
@@ -10680,119 +10817,119 @@
       <c r="G76" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H76" s="41" t="s">
+      <c r="H76" s="52" t="s">
         <v>79</v>
       </c>
       <c r="I76" s="27"/>
-      <c r="J76" s="42"/>
+      <c r="J76" s="53"/>
     </row>
     <row r="77" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A77" s="77"/>
+      <c r="A77" s="89"/>
       <c r="B77" s="27"/>
       <c r="C77" s="28"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
       <c r="G77" s="18"/>
-      <c r="H77" s="41"/>
+      <c r="H77" s="52"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="42"/>
+      <c r="J77" s="53"/>
     </row>
     <row r="78" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A78" s="77"/>
+      <c r="A78" s="89"/>
       <c r="B78" s="27"/>
       <c r="C78" s="28"/>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="18"/>
-      <c r="H78" s="41"/>
+      <c r="H78" s="52"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="42"/>
+      <c r="J78" s="53"/>
     </row>
     <row r="79" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A79" s="77"/>
+      <c r="A79" s="89"/>
       <c r="B79" s="27"/>
       <c r="C79" s="28"/>
       <c r="D79" s="17"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="18"/>
-      <c r="H79" s="41"/>
+      <c r="H79" s="52"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="42"/>
+      <c r="J79" s="53"/>
     </row>
     <row r="80" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A80" s="77"/>
+      <c r="A80" s="89"/>
       <c r="B80" s="27"/>
       <c r="C80" s="28"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="18"/>
-      <c r="H80" s="41"/>
+      <c r="H80" s="52"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="42"/>
+      <c r="J80" s="53"/>
     </row>
     <row r="81" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A81" s="77"/>
+      <c r="A81" s="89"/>
       <c r="B81" s="27"/>
       <c r="C81" s="28"/>
       <c r="D81" s="17"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="18"/>
-      <c r="H81" s="41"/>
+      <c r="H81" s="52"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="42"/>
+      <c r="J81" s="53"/>
     </row>
     <row r="82" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A82" s="77"/>
-      <c r="B82" s="78"/>
-      <c r="C82" s="79"/>
+      <c r="A82" s="89"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="91"/>
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
       <c r="F82" s="22"/>
       <c r="G82" s="21"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="80"/>
-      <c r="J82" s="81"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="92"/>
+      <c r="J82" s="93"/>
     </row>
     <row r="83" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A83" s="77"/>
-      <c r="B83" s="78"/>
-      <c r="C83" s="79"/>
+      <c r="A83" s="89"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="91"/>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
       <c r="F83" s="22"/>
       <c r="G83" s="21"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="80"/>
-      <c r="J83" s="81"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="92"/>
+      <c r="J83" s="93"/>
     </row>
     <row r="84" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A84" s="77"/>
-      <c r="B84" s="78"/>
-      <c r="C84" s="79"/>
+      <c r="A84" s="89"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="91"/>
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
       <c r="F84" s="22"/>
       <c r="G84" s="21"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="80"/>
-      <c r="J84" s="81"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="92"/>
+      <c r="J84" s="93"/>
     </row>
     <row r="85" spans="1:10" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A85" s="104"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="45"/>
+      <c r="A85" s="94"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="56"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" s="20"/>
       <c r="G85" s="20"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="37"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="55"/>
+      <c r="J85" s="69"/>
     </row>
     <row r="86" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="87" spans="1:10" ht="12.75" customHeight="1"/>
@@ -11729,49 +11866,55 @@
     <row r="1018" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G12:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C11"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J9"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="F17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="A16:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="D17:E19"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H53:J53"/>
     <mergeCell ref="A65:J65"/>
     <mergeCell ref="A66:J72"/>
     <mergeCell ref="A73:J73"/>
@@ -11796,55 +11939,49 @@
     <mergeCell ref="H61:J61"/>
     <mergeCell ref="A56:C56"/>
     <mergeCell ref="H56:J56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="F17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="A16:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="D17:E19"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G12:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C11"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F13"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
